--- a/tests/test1/d10/ЛМ, 0.3.xlsx
+++ b/tests/test1/d10/ЛМ, 0.3.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.008510799999996266</v>
+        <v>0.005818499999989513</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.007432899999997744</v>
+        <v>0.002925499999989256</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.003634500000003982</v>
+        <v>0.003559600000002661</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.01645870000000116</v>
+        <v>0.004409499999994182</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.01102009999999609</v>
+        <v>0.005874500000004446</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.01233849999999848</v>
+        <v>0.004265799999998876</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.01044430000000318</v>
+        <v>0.005818700000006061</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002124599999987709</v>
+        <v>0.002060999999997648</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.00525249999999744</v>
+        <v>0.004904499999994982</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001869999999996708</v>
+        <v>0.001853500000009944</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.003353999999987423</v>
+        <v>0.003138200000009306</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002141699999995694</v>
+        <v>0.002063799999987737</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.00207319999999811</v>
+        <v>0.001988699999998289</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.008565299999986564</v>
+        <v>0.004667099999991819</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.005310399999999049</v>
+        <v>0.004193699999987643</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.006490300000010052</v>
+        <v>0.004625700000005395</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002280800000008298</v>
+        <v>0.002652199999999993</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002743499999994015</v>
+        <v>0.002271699999994325</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.00784669999998755</v>
+        <v>0.006658400000006282</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.004120900000003758</v>
+        <v>0.002006700000009687</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.00530080000000055</v>
+        <v>0.006766099999993003</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001945399999996766</v>
+        <v>0.001759800000002087</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002081200000006334</v>
+        <v>0.001983300000006238</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.004521800000006237</v>
+        <v>0.004220399999994129</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.008331400000002986</v>
+        <v>0.007482400000000666</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.005730799999994929</v>
+        <v>0.005938199999988569</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002383600000001707</v>
+        <v>0.00234980000000462</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003292000000001849</v>
+        <v>0.003306299999991325</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.005398200000001907</v>
+        <v>0.005152799999990521</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.007731100000000879</v>
+        <v>0.006938000000005218</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.004868600000008882</v>
+        <v>0.004782599999998638</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002405399999986457</v>
+        <v>0.003731299999998328</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.006163000000000807</v>
+        <v>0.005875599999995984</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002363600000009569</v>
+        <v>0.002326399999986961</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001861399999995683</v>
+        <v>0.001787100000001374</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.003754600000007713</v>
+        <v>0.004808600000004049</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.006103400000000647</v>
+        <v>0.005679700000001731</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.005882700000000796</v>
+        <v>0.005527200000003063</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.00447979999999859</v>
+        <v>0.004820100000003436</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.004476900000000228</v>
+        <v>0.004383799999999383</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.003880399999999895</v>
+        <v>0.003555500000004486</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002078800000006709</v>
+        <v>0.002073999999993248</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.004603599999995822</v>
+        <v>0.002832699999999022</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002123699999998507</v>
+        <v>0.002112400000001458</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.005565500000002999</v>
+        <v>0.003749400000003789</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.006106000000002609</v>
+        <v>0.005758300000010763</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.00721779999999228</v>
+        <v>0.007643600000008632</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002105900000003658</v>
+        <v>0.002023700000009399</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001891700000001606</v>
+        <v>0.004469299999996679</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002082000000001472</v>
+        <v>0.002118099999989909</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.004588099999992323</v>
+        <v>0.003716199999999503</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003344600000005471</v>
+        <v>0.003158700000000181</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.005448999999998705</v>
+        <v>0.005071499999999673</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.006018699999998489</v>
+        <v>0.005708699999999567</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002414299999998093</v>
+        <v>0.002282699999994975</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.00217349999999783</v>
+        <v>0.002000400000000013</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.005718700000002741</v>
+        <v>0.006508199999998965</v>
       </c>
       <c r="Y58" t="n">
         <v>25</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002140699999998219</v>
+        <v>0.002754999999993402</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002370799999994233</v>
+        <v>0.002321199999997248</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.004697499999991805</v>
+        <v>0.006321199999987925</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002155199999990032</v>
+        <v>0.002369500000000357</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.004808299999993437</v>
+        <v>0.006510399999996253</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001871899999997595</v>
+        <v>0.001759200000009287</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.004246399999999539</v>
+        <v>0.005975899999995704</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002374400000007881</v>
+        <v>0.002208600000003003</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002080699999993385</v>
+        <v>0.003697700000003579</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.003278500000007512</v>
+        <v>0.00202629999999715</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004627599999992071</v>
+        <v>0.006116700000006858</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002711900000008427</v>
+        <v>0.0019952000000103</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002322199999994723</v>
+        <v>0.002205500000002303</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.007660199999989459</v>
+        <v>0.006122299999987035</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002112100000005057</v>
+        <v>0.003279500000004987</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.003083399999994185</v>
+        <v>0.002150499999999056</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.005065999999999349</v>
+        <v>0.006724200000007841</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002429999999989718</v>
+        <v>0.00227040000000045</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002705100000000016</v>
+        <v>0.004115100000007033</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.004134000000007632</v>
+        <v>0.002295700000004786</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.005488399999990179</v>
+        <v>0.007554500000011899</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001935099999997192</v>
+        <v>0.001810300000002485</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003606000000004883</v>
+        <v>0.005106900000001247</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.00437130000000252</v>
+        <v>0.003998800000005076</v>
       </c>
       <c r="Y82" t="n">
         <v>18</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002327600000000984</v>
+        <v>0.004088800000005222</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002896399999997357</v>
+        <v>0.002361500000006345</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002340099999997847</v>
+        <v>0.002238500000004251</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.003442699999993692</v>
+        <v>0.001863099999994233</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.005075800000000186</v>
+        <v>0.006795900000000188</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003824799999989636</v>
+        <v>0.002140900000000556</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.005268799999996077</v>
+        <v>0.00713130000001172</v>
       </c>
       <c r="Y89" t="n">
         <v>23</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.005256200000005151</v>
+        <v>0.004898400000001857</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.003584699999990448</v>
+        <v>0.002852200000006633</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002185999999994692</v>
+        <v>0.002015399999990564</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002073400000000447</v>
+        <v>0.002283599999998387</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.005573299999994674</v>
+        <v>0.005164500000006456</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.007139499999993859</v>
+        <v>0.004882300000005557</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.005302000000000362</v>
+        <v>0.007371599999999034</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002276399999999512</v>
+        <v>0.002043200000002798</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002394800000004693</v>
+        <v>0.004193999999998255</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.007014600000005089</v>
+        <v>0.005329799999998386</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.006032200000007037</v>
+        <v>0.005888299999995183</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.005146699999997395</v>
+        <v>0.007639999999994984</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>

--- a/tests/test1/d10/ЛМ, 0.3.xlsx
+++ b/tests/test1/d10/ЛМ, 0.3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.005818499999989513</v>
+        <v>0.005003799999997227</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002925499999989256</v>
+        <v>0.003130300000009356</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.003559600000002661</v>
+        <v>0.00232379999999921</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004409499999994182</v>
+        <v>0.004799499999990076</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.005874500000004446</v>
+        <v>0.005839199999996936</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.004265799999998876</v>
+        <v>0.002665000000007467</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.005818700000006061</v>
+        <v>0.006587499999994861</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002060999999997648</v>
+        <v>0.002666899999994143</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.004904499999994982</v>
+        <v>0.005714800000006903</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001853500000009944</v>
+        <v>0.002082599999994272</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.003138200000009306</v>
+        <v>0.003648200000000656</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002063799999987737</v>
+        <v>0.002304399999999873</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.001988699999998289</v>
+        <v>0.002314799999993511</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.004667099999991819</v>
+        <v>0.006880300000005946</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.004193699999987643</v>
+        <v>0.004742799999988279</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.004625700000005395</v>
+        <v>0.005217000000001804</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002652199999999993</v>
+        <v>0.002321399999999585</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002271699999994325</v>
+        <v>0.002459599999994566</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.006658400000006282</v>
+        <v>0.006660499999995295</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002006700000009687</v>
+        <v>0.002357299999999896</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.006766099999993003</v>
+        <v>0.007128600000001484</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001759800000002087</v>
+        <v>0.002199199999992629</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001983300000006238</v>
+        <v>0.002858700000004433</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.004220399999994129</v>
+        <v>0.009496699999999691</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.007482400000000666</v>
+        <v>0.006168400000007068</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.005938199999988569</v>
+        <v>0.01230869999999129</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.00234980000000462</v>
+        <v>0.002515500000001225</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003306299999991325</v>
+        <v>0.003577700000008122</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.005152799999990521</v>
+        <v>0.005572200000003136</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.006938000000005218</v>
+        <v>0.005653000000009456</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.004782599999998638</v>
+        <v>0.007425799999992932</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.003731299999998328</v>
+        <v>0.00239189999999212</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.005875599999995984</v>
+        <v>0.006576899999998886</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002326399999986961</v>
+        <v>0.002449499999997329</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001787100000001374</v>
+        <v>0.001954899999986992</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.004808600000004049</v>
+        <v>0.00313889999999617</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.005679700000001731</v>
+        <v>0.006344699999999648</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.005527200000003063</v>
+        <v>0.007635200000009945</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.004820100000003436</v>
+        <v>0.00311150000000282</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.004383799999999383</v>
+        <v>0.005712299999999004</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.003555500000004486</v>
+        <v>0.002185600000004229</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002073999999993248</v>
+        <v>0.002239299999999389</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002832699999999022</v>
+        <v>0.003082899999995448</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002112400000001458</v>
+        <v>0.0037923999999947</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.003749400000003789</v>
+        <v>0.004124900000007869</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.005758300000010763</v>
+        <v>0.008027999999995927</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.007643600000008632</v>
+        <v>0.007913700000003132</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002023700000009399</v>
+        <v>0.00214920000000518</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.004469299999996679</v>
+        <v>0.001897800000008942</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002118099999989909</v>
+        <v>0.002194200000005253</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.003716199999999503</v>
+        <v>0.003073999999998023</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003158700000000181</v>
+        <v>0.003669900000005555</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.005071499999999673</v>
+        <v>0.003502600000004463</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.005708699999999567</v>
+        <v>0.00621959999999433</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002282699999994975</v>
+        <v>0.00287670000000162</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002000400000000013</v>
+        <v>0.002181200000009653</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.006508199999998965</v>
+        <v>0.007593199999988087</v>
       </c>
       <c r="Y58" t="n">
         <v>25</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002754999999993402</v>
+        <v>0.002188500000002591</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002321199999997248</v>
+        <v>0.003298799999996049</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.006321199999987925</v>
+        <v>0.004824599999992074</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002369500000000357</v>
+        <v>0.003742800000011925</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.006510399999996253</v>
+        <v>0.005018500000005588</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001759200000009287</v>
+        <v>0.003439599999992993</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.005975899999995704</v>
+        <v>0.00440999999999292</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002208600000003003</v>
+        <v>0.004127100000005157</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.003697700000003579</v>
+        <v>0.002164399999998068</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.00202629999999715</v>
+        <v>0.002185600000004229</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.006116700000006858</v>
+        <v>0.004789299999998775</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.0019952000000103</v>
+        <v>0.00219299999999123</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002205500000002303</v>
+        <v>0.002443499999998267</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.006122299999987035</v>
+        <v>0.007782500000004688</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.003279500000004987</v>
+        <v>0.002197599999988142</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002150499999999056</v>
+        <v>0.002210099999999215</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.006724200000007841</v>
+        <v>0.005332300000006285</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.00227040000000045</v>
+        <v>0.003872999999998683</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.004115100000007033</v>
+        <v>0.002863800000000083</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002295700000004786</v>
+        <v>0.002409799999995244</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.007554500000011899</v>
+        <v>0.005918600000001106</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001810300000002485</v>
+        <v>0.00356920000000116</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.005106900000001247</v>
+        <v>0.003754899999989902</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.003998800000005076</v>
+        <v>0.006204999999994243</v>
       </c>
       <c r="Y82" t="n">
         <v>18</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.004088800000005222</v>
+        <v>0.002423500000006129</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002361500000006345</v>
+        <v>0.004129999999989309</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002238500000004251</v>
+        <v>0.002540599999989013</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001863099999994233</v>
+        <v>0.002080300000002921</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.006795900000000188</v>
+        <v>0.005443900000003055</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002140900000000556</v>
+        <v>0.003708099999997216</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.00713130000001172</v>
+        <v>0.005626700000007645</v>
       </c>
       <c r="Y89" t="n">
         <v>23</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.004898400000001857</v>
+        <v>0.006511000000003264</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002852200000006633</v>
+        <v>0.003064199999997186</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002015399999990564</v>
+        <v>0.002203500000007352</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002283599999998387</v>
+        <v>0.002190200000001141</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.005164500000006456</v>
+        <v>0.007397499999996171</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.004882300000005557</v>
+        <v>0.00629360000000645</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.007371599999999034</v>
+        <v>0.005563600000002111</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002043200000002798</v>
+        <v>0.0037726000000049</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.004193999999998255</v>
+        <v>0.002575299999989511</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.005329799999998386</v>
+        <v>0.007576099999994312</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.005888299999995183</v>
+        <v>0.006272100000003888</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.007639999999994984</v>
+        <v>0.005879899999996496</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>

--- a/tests/test1/d10/ЛМ, 0.3.xlsx
+++ b/tests/test1/d10/ЛМ, 0.3.xlsx
@@ -582,13 +582,13 @@
         <v>359.9329468992956</v>
       </c>
       <c r="F2" t="n">
-        <v>10.07987560553006</v>
+        <v>10.07987560553005</v>
       </c>
       <c r="G2" t="n">
         <v>98.8401138974379</v>
       </c>
       <c r="H2" t="n">
-        <v>11.73439690828956</v>
+        <v>11.73439690828955</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>70.62839304825181</v>
       </c>
       <c r="P2" t="n">
-        <v>15.97717652661632</v>
+        <v>15.9771765266163</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.008610779675958464</v>
+        <v>0.008610779675959144</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1235337533073726</v>
+        <v>0.123533753307402</v>
       </c>
       <c r="S2" t="n">
-        <v>0.195563306887907</v>
+        <v>0.1955633068879516</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04649141208054378</v>
+        <v>0.04649141208055429</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08991100466108475</v>
+        <v>0.08991100466108479</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06888695352698421</v>
+        <v>0.06888695352697982</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.005003799999997227</v>
+        <v>0.003591200000000683</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -664,13 +664,13 @@
         <v>0.01630333832048543</v>
       </c>
       <c r="F3" t="n">
-        <v>9.897319320859749</v>
+        <v>9.897319320859753</v>
       </c>
       <c r="G3" t="n">
-        <v>74.95479434940357</v>
+        <v>74.95479434940358</v>
       </c>
       <c r="H3" t="n">
-        <v>11.47136226688908</v>
+        <v>11.47136226688909</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -694,25 +694,25 @@
         <v>53.12002430854515</v>
       </c>
       <c r="P3" t="n">
-        <v>18.08618292395777</v>
+        <v>18.08618292395778</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.008353084768425237</v>
+        <v>0.008353084768425383</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09240950368904775</v>
+        <v>0.09240950368905469</v>
       </c>
       <c r="S3" t="n">
-        <v>0.148177104141081</v>
+        <v>0.1481771041410915</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03440585666339384</v>
+        <v>0.03440585666339423</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08946919843009504</v>
+        <v>0.08946919843009489</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07572241923644743</v>
+        <v>0.07572241923644635</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.003130300000009356</v>
+        <v>0.002280600000000632</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -749,7 +749,7 @@
         <v>10.02247645388214</v>
       </c>
       <c r="G4" t="n">
-        <v>79.41203954962739</v>
+        <v>79.41203954962741</v>
       </c>
       <c r="H4" t="n">
         <v>3.275036575813055</v>
@@ -773,28 +773,28 @@
         <v>9.618122158119826</v>
       </c>
       <c r="O4" t="n">
-        <v>31.80759915450682</v>
+        <v>31.80759915450683</v>
       </c>
       <c r="P4" t="n">
         <v>9.564624835740831</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.006880989027609153</v>
+        <v>0.006880989027609184</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04248765662860726</v>
+        <v>0.04248765662860834</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03945393573501563</v>
+        <v>0.03945393573501611</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03891555935748616</v>
+        <v>0.03891555935748628</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09493106975871664</v>
+        <v>0.0949310697587166</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06977355975659381</v>
+        <v>0.06977355975659452</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.00232379999999921</v>
+        <v>0.001665400000000261</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -828,7 +828,7 @@
         <v>0.06327528029656621</v>
       </c>
       <c r="F5" t="n">
-        <v>9.946199982909304</v>
+        <v>9.946199982909306</v>
       </c>
       <c r="G5" t="n">
         <v>99.21320256471229</v>
@@ -855,22 +855,22 @@
         <v>15.67687823027242</v>
       </c>
       <c r="O5" t="n">
-        <v>70.65478023103498</v>
+        <v>70.65478023103496</v>
       </c>
       <c r="P5" t="n">
         <v>15.53050753219797</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.008300675737371019</v>
+        <v>0.008300675737371012</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1192134015166396</v>
+        <v>0.1192134015166433</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1869754423565711</v>
+        <v>0.186975442356576</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0456227025102286</v>
+        <v>0.0456227025102301</v>
       </c>
       <c r="U5" t="n">
         <v>0.09412411742042734</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004799499999990076</v>
+        <v>0.003583400000000125</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -916,7 +916,7 @@
         <v>173.994115064397</v>
       </c>
       <c r="H6" t="n">
-        <v>9.624708488290457</v>
+        <v>9.624708488290459</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>149.6346471584997</v>
       </c>
       <c r="P6" t="n">
-        <v>4.699311675203159</v>
+        <v>4.69931167520316</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.003104325447639294</v>
+        <v>0.003104325447639314</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03681074161724055</v>
+        <v>0.03681074161724539</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01166720295917632</v>
+        <v>0.01166720295917749</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04490939285279005</v>
+        <v>0.04490939285279592</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08451601943484391</v>
+        <v>0.08451601943484413</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04369702732589936</v>
+        <v>0.04369702732590014</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.005839199999996936</v>
+        <v>0.004452500000001081</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -992,13 +992,13 @@
         <v>359.9499369448453</v>
       </c>
       <c r="F7" t="n">
-        <v>10.05186257110137</v>
+        <v>10.05186257110136</v>
       </c>
       <c r="G7" t="n">
-        <v>40.02275775488273</v>
+        <v>40.02275775488271</v>
       </c>
       <c r="H7" t="n">
-        <v>13.58178498450056</v>
+        <v>13.58178498450055</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1019,28 +1019,28 @@
         <v>22.87529985576693</v>
       </c>
       <c r="O7" t="n">
-        <v>30.30996689597198</v>
+        <v>30.30996689597196</v>
       </c>
       <c r="P7" t="n">
-        <v>23.06991303361146</v>
+        <v>23.06991303361145</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.00886304919884771</v>
+        <v>0.008863049198847551</v>
       </c>
       <c r="R7" t="n">
-        <v>0.08579405273450934</v>
+        <v>0.08579405273451038</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1106509212984274</v>
+        <v>0.1106509212984269</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1102865455273668</v>
+        <v>0.1102865455273648</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08636723013677072</v>
+        <v>0.08636723013677074</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04735080504032951</v>
+        <v>0.04735080504031875</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002665000000007467</v>
+        <v>0.001887299999999925</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1074,13 +1074,13 @@
         <v>359.9278088597699</v>
       </c>
       <c r="F8" t="n">
-        <v>10.17165056711681</v>
+        <v>10.17165056711682</v>
       </c>
       <c r="G8" t="n">
         <v>160.299405127723</v>
       </c>
       <c r="H8" t="n">
-        <v>7.166208885499122</v>
+        <v>7.166208885499127</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>3.973338297383755</v>
       </c>
       <c r="O8" t="n">
-        <v>97.59388314318251</v>
+        <v>97.59388314318247</v>
       </c>
       <c r="P8" t="n">
-        <v>4.092448445623716</v>
+        <v>4.092448445623718</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.00807701555719801</v>
+        <v>0.008077015557201172</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1243206576147873</v>
+        <v>0.1243206576148433</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07649873008273521</v>
+        <v>0.07649873008277057</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1117964951155988</v>
+        <v>0.1117964951156491</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08347235721500508</v>
+        <v>0.08347235721500505</v>
       </c>
       <c r="V8" t="n">
-        <v>0.13123477616337</v>
+        <v>0.1312347761633799</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.006587499999994861</v>
+        <v>0.004873699999999204</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1156,7 +1156,7 @@
         <v>0.03755781863409612</v>
       </c>
       <c r="F9" t="n">
-        <v>9.883245549714919</v>
+        <v>9.883245549714918</v>
       </c>
       <c r="G9" t="n">
         <v>13.5755192318101</v>
@@ -1189,22 +1189,22 @@
         <v>21.92529963720078</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.007993110621003288</v>
+        <v>0.007993110621003273</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09314348136516366</v>
+        <v>0.093143481365163</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04793578002851331</v>
+        <v>0.04793578002851309</v>
       </c>
       <c r="T9" t="n">
-        <v>0.162649891730043</v>
+        <v>0.1626498917300425</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08542279930119406</v>
+        <v>0.08542279930119398</v>
       </c>
       <c r="V9" t="n">
-        <v>0.08482492764406258</v>
+        <v>0.08482492764406348</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002666899999994143</v>
+        <v>0.002828199999999725</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1238,13 +1238,13 @@
         <v>359.9931387493593</v>
       </c>
       <c r="F10" t="n">
-        <v>9.966793384481187</v>
+        <v>9.966793384481189</v>
       </c>
       <c r="G10" t="n">
         <v>157.2072630756345</v>
       </c>
       <c r="H10" t="n">
-        <v>14.56627124726034</v>
+        <v>14.56627124726035</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1271,22 +1271,22 @@
         <v>11.82653270271912</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.003884257721875745</v>
+        <v>0.003884257721875727</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05120687287297116</v>
+        <v>0.05120687287295991</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04278688216801414</v>
+        <v>0.04278688216800515</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08226548561974593</v>
+        <v>0.08226548561972791</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09848228561505133</v>
+        <v>0.09848228561505144</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01785833950897701</v>
+        <v>0.01785833950897671</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.005714800000006903</v>
+        <v>0.004041499999999587</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1353,19 +1353,19 @@
         <v>18.26164837529596</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.006435478200159654</v>
+        <v>0.006435478200159691</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1293649981787714</v>
+        <v>0.1293649981787719</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0239385989726565</v>
+        <v>0.02393859897265657</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2097803662010855</v>
+        <v>0.2097803662010873</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09423448751949748</v>
+        <v>0.09423448751949749</v>
       </c>
       <c r="V11" t="n">
         <v>0.02239290472535272</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.002082599999994272</v>
+        <v>0.001383699999999877</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1402,7 +1402,7 @@
         <v>359.9808351024584</v>
       </c>
       <c r="F12" t="n">
-        <v>9.999013384039399</v>
+        <v>9.999013384039397</v>
       </c>
       <c r="G12" t="n">
         <v>138.8457886681542</v>
@@ -1429,28 +1429,28 @@
         <v>5.809547132347129</v>
       </c>
       <c r="O12" t="n">
-        <v>40.0504980870752</v>
+        <v>40.05049808707521</v>
       </c>
       <c r="P12" t="n">
-        <v>5.805464686361288</v>
+        <v>5.805464686361285</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.006279012570903157</v>
+        <v>0.0062790125709031</v>
       </c>
       <c r="R12" t="n">
-        <v>0.03320662980337452</v>
+        <v>0.03320662980337338</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03040545626698842</v>
+        <v>0.03040545626698727</v>
       </c>
       <c r="T12" t="n">
-        <v>0.02211843882091253</v>
+        <v>0.02211843882091269</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08007899532901794</v>
+        <v>0.08007899532901791</v>
       </c>
       <c r="V12" t="n">
-        <v>0.009129661007920767</v>
+        <v>0.009129661007921189</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.003648200000000656</v>
+        <v>0.002668899999999752</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1487,10 +1487,10 @@
         <v>9.905355678595429</v>
       </c>
       <c r="G13" t="n">
-        <v>31.88916068469485</v>
+        <v>31.88916068469486</v>
       </c>
       <c r="H13" t="n">
-        <v>3.199184560372011</v>
+        <v>3.199184560372009</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1511,28 +1511,28 @@
         <v>11.14346017967418</v>
       </c>
       <c r="O13" t="n">
-        <v>16.88254988623576</v>
+        <v>16.88254988623577</v>
       </c>
       <c r="P13" t="n">
         <v>11.02369543686494</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.006530427349805646</v>
+        <v>0.006530427349805665</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04900268414412838</v>
+        <v>0.04900268414412776</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02829034281183349</v>
+        <v>0.02829034281183384</v>
       </c>
       <c r="T13" t="n">
         <v>0.07288783481100135</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08663278156327688</v>
+        <v>0.08663278156327681</v>
       </c>
       <c r="V13" t="n">
-        <v>0.08047651763105602</v>
+        <v>0.08047651763105054</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002304399999999873</v>
+        <v>0.001526000000000138</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
         <v>27.78376603683367</v>
       </c>
       <c r="H14" t="n">
-        <v>12.06370567112349</v>
+        <v>12.0637056711235</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1593,28 +1593,28 @@
         <v>21.47093508922593</v>
       </c>
       <c r="O14" t="n">
-        <v>21.35750333468561</v>
+        <v>21.35750333468563</v>
       </c>
       <c r="P14" t="n">
         <v>21.75164452004715</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.008526458025628488</v>
+        <v>0.008526458025628665</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07988898933967134</v>
+        <v>0.07988898933967169</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07376684730430809</v>
+        <v>0.07376684730430993</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1220648605706965</v>
+        <v>0.1220648605707002</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09065201232226465</v>
+        <v>0.09065201232226469</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06904682607893226</v>
+        <v>0.06904682607894078</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002314799999993511</v>
+        <v>0.00151630000000047</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1654,7 +1654,7 @@
         <v>139.9223346334124</v>
       </c>
       <c r="H15" t="n">
-        <v>5.883474171047864</v>
+        <v>5.883474171047862</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1678,25 +1678,25 @@
         <v>70.5920760327157</v>
       </c>
       <c r="P15" t="n">
-        <v>6.059890778467814</v>
+        <v>6.059890778467812</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.007170405881355438</v>
+        <v>0.007170405881355056</v>
       </c>
       <c r="R15" t="n">
-        <v>0.06783378250012545</v>
+        <v>0.06783378250011936</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0605513432015246</v>
+        <v>0.06055134320151914</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04052099104083083</v>
+        <v>0.04052099104082738</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07894217659963311</v>
+        <v>0.0789421765996331</v>
       </c>
       <c r="V15" t="n">
-        <v>0.03321687558721784</v>
+        <v>0.03321687558721659</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.006880300000005946</v>
+        <v>0.004441899999999777</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -1730,13 +1730,13 @@
         <v>0.05358107435818425</v>
       </c>
       <c r="F16" t="n">
-        <v>9.933485345469078</v>
+        <v>9.933485345469084</v>
       </c>
       <c r="G16" t="n">
         <v>92.40998089027036</v>
       </c>
       <c r="H16" t="n">
-        <v>12.18764610231499</v>
+        <v>12.187646102315</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1757,28 +1757,28 @@
         <v>17.25965100693092</v>
       </c>
       <c r="O16" t="n">
-        <v>67.0035812822592</v>
+        <v>67.00358128225919</v>
       </c>
       <c r="P16" t="n">
-        <v>17.1553297736248</v>
+        <v>17.15532977362481</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.008422077230880714</v>
+        <v>0.008422077230881305</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1177341554102657</v>
+        <v>0.1177341554102874</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1969271239624599</v>
+        <v>0.1969271239624965</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03127103274857443</v>
+        <v>0.03127103274857802</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09342180017889828</v>
+        <v>0.09342180017889848</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0349655606067275</v>
+        <v>0.03496556060673177</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.004742799999988279</v>
+        <v>0.004467599999999905</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1845,19 +1845,19 @@
         <v>4.40897935751468</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.006678221124422479</v>
+        <v>0.00667822112442258</v>
       </c>
       <c r="R17" t="n">
-        <v>0.05011529105991279</v>
+        <v>0.05011529105991597</v>
       </c>
       <c r="S17" t="n">
-        <v>0.04121609557607452</v>
+        <v>0.04121609557607647</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02800769330883993</v>
+        <v>0.02800769330884179</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09014921465490283</v>
+        <v>0.09014921465490285</v>
       </c>
       <c r="V17" t="n">
         <v>0.01244863028417016</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.005217000000001804</v>
+        <v>0.005507599999999613</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1900,7 +1900,7 @@
         <v>40.09270919345325</v>
       </c>
       <c r="H18" t="n">
-        <v>9.067405291206939</v>
+        <v>9.06740529120694</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1927,22 +1927,22 @@
         <v>17.60408875066199</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00800356278244317</v>
+        <v>0.008003562782443036</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06582612857262839</v>
+        <v>0.06582612857262909</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0697631603849638</v>
+        <v>0.06976316038496251</v>
       </c>
       <c r="T18" t="n">
-        <v>0.07948117169361767</v>
+        <v>0.07948117169361563</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07660266499562746</v>
+        <v>0.0766026649956275</v>
       </c>
       <c r="V18" t="n">
-        <v>0.1014020697552461</v>
+        <v>0.1014020697552453</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002321399999999585</v>
+        <v>0.00252749999999935</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1976,13 +1976,13 @@
         <v>359.9504826977136</v>
       </c>
       <c r="F19" t="n">
-        <v>9.958853720281192</v>
+        <v>9.958853720281191</v>
       </c>
       <c r="G19" t="n">
-        <v>52.84273890849357</v>
+        <v>52.84273890849358</v>
       </c>
       <c r="H19" t="n">
-        <v>9.399083765641659</v>
+        <v>9.399083765641654</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2006,25 +2006,25 @@
         <v>35.64528168438728</v>
       </c>
       <c r="P19" t="n">
-        <v>17.41852437621083</v>
+        <v>17.41852437621082</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.008168096656482783</v>
+        <v>0.008168096656482784</v>
       </c>
       <c r="R19" t="n">
-        <v>0.07021698591339955</v>
+        <v>0.07021698591340179</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08800333951099509</v>
+        <v>0.08800333951099736</v>
       </c>
       <c r="T19" t="n">
-        <v>0.06331085927829121</v>
+        <v>0.06331085927829146</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09277367628037267</v>
+        <v>0.09277367628037278</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02143567923445482</v>
+        <v>0.02143567923445235</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002459599999994566</v>
+        <v>0.002154000000000877</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2064,7 +2064,7 @@
         <v>116.9842515894162</v>
       </c>
       <c r="H20" t="n">
-        <v>9.267817812231176</v>
+        <v>9.267817812231169</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2088,25 +2088,25 @@
         <v>77.42345164590519</v>
       </c>
       <c r="P20" t="n">
-        <v>11.33584089342177</v>
+        <v>11.33584089342176</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.008311616880750827</v>
+        <v>0.008311616880752442</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1166151981478368</v>
+        <v>0.116615198147886</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1444021943405512</v>
+        <v>0.1444021943406104</v>
       </c>
       <c r="T20" t="n">
-        <v>0.07170778525696406</v>
+        <v>0.07170778525699409</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09202917733597506</v>
+        <v>0.09202917733597504</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1032988582964341</v>
+        <v>0.1032988582964311</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.006660499999995295</v>
+        <v>0.004001399999999933</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2146,7 +2146,7 @@
         <v>17.49923731601013</v>
       </c>
       <c r="H21" t="n">
-        <v>12.19979349681613</v>
+        <v>12.19979349681614</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2170,25 +2170,25 @@
         <v>14.66258412924655</v>
       </c>
       <c r="P21" t="n">
-        <v>22.01312313720265</v>
+        <v>22.01312313720266</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.008203623028907278</v>
+        <v>0.008203623028907465</v>
       </c>
       <c r="R21" t="n">
-        <v>0.08684410510201085</v>
+        <v>0.08684410510200978</v>
       </c>
       <c r="S21" t="n">
-        <v>0.05531397406173259</v>
+        <v>0.05531397406173397</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1487090236600354</v>
+        <v>0.1487090236600404</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08681913481114278</v>
+        <v>0.08681913481114292</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01809245727358959</v>
+        <v>0.01809245727359023</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002357299999999896</v>
+        <v>0.00158680000000011</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2222,13 +2222,13 @@
         <v>0.0444710663296838</v>
       </c>
       <c r="F22" t="n">
-        <v>9.863211546797954</v>
+        <v>9.863211546797942</v>
       </c>
       <c r="G22" t="n">
         <v>105.8360112453758</v>
       </c>
       <c r="H22" t="n">
-        <v>13.50904947245346</v>
+        <v>13.50904947245343</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2252,25 +2252,25 @@
         <v>80.44621474096785</v>
       </c>
       <c r="P22" t="n">
-        <v>17.00963260623426</v>
+        <v>17.00963260623424</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.008640087006767494</v>
+        <v>0.008640087006768321</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1569755094138615</v>
+        <v>0.1569755094138851</v>
       </c>
       <c r="S22" t="n">
-        <v>0.2701706875742506</v>
+        <v>0.2701706875742927</v>
       </c>
       <c r="T22" t="n">
-        <v>0.09364514641142234</v>
+        <v>0.09364514641143566</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08489313320305007</v>
+        <v>0.08489313320305004</v>
       </c>
       <c r="V22" t="n">
-        <v>0.08262226241416487</v>
+        <v>0.08262226241417078</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.007128600000001484</v>
+        <v>0.005640400000000767</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2337,19 +2337,19 @@
         <v>15.48994303615158</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.006733203505142398</v>
+        <v>0.006733203505142517</v>
       </c>
       <c r="R23" t="n">
-        <v>0.08407996801112555</v>
+        <v>0.08407996801112551</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02755972107262065</v>
+        <v>0.02755972107262121</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1377234770814375</v>
+        <v>0.1377234770814408</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09117526973498635</v>
+        <v>0.0911752697349863</v>
       </c>
       <c r="V23" t="n">
         <v>0.1165345071924043</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002199199999992629</v>
+        <v>0.001661199999999141</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2386,10 +2386,10 @@
         <v>0.01042140214472588</v>
       </c>
       <c r="F24" t="n">
-        <v>10.10913260371204</v>
+        <v>10.10913260371205</v>
       </c>
       <c r="G24" t="n">
-        <v>37.89409821732566</v>
+        <v>37.89409821732567</v>
       </c>
       <c r="H24" t="n">
         <v>8.751401485190199</v>
@@ -2419,22 +2419,22 @@
         <v>17.52469568660265</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.008097720120627469</v>
+        <v>0.008097720120627492</v>
       </c>
       <c r="R24" t="n">
-        <v>0.06672457085681785</v>
+        <v>0.06672457085681695</v>
       </c>
       <c r="S24" t="n">
-        <v>0.06578831220973222</v>
+        <v>0.06578831220973198</v>
       </c>
       <c r="T24" t="n">
-        <v>0.08368004802731203</v>
+        <v>0.08368004802731262</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09923272651559167</v>
+        <v>0.09923272651559134</v>
       </c>
       <c r="V24" t="n">
-        <v>0.03361188532412435</v>
+        <v>0.03361188532412507</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002858700000004433</v>
+        <v>0.00165029999999966</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2495,28 +2495,28 @@
         <v>19.47923218856673</v>
       </c>
       <c r="O25" t="n">
-        <v>70.70577376124766</v>
+        <v>70.70577376124767</v>
       </c>
       <c r="P25" t="n">
         <v>19.35888668471965</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.008844735556113493</v>
+        <v>0.008844735556114331</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1401820950657307</v>
+        <v>0.1401820950657507</v>
       </c>
       <c r="S25" t="n">
-        <v>0.2607500133248881</v>
+        <v>0.2607500133249283</v>
       </c>
       <c r="T25" t="n">
-        <v>0.04077030441724032</v>
+        <v>0.04077030441724385</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08244645662040226</v>
+        <v>0.08244645662040224</v>
       </c>
       <c r="V25" t="n">
-        <v>0.03488176052361275</v>
+        <v>0.03488176052361212</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.009496699999999691</v>
+        <v>0.003660800000000464</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2583,19 +2583,19 @@
         <v>6.819461673537623</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.003068200482869476</v>
+        <v>0.00306820048286946</v>
       </c>
       <c r="R26" t="n">
-        <v>0.03281597225764346</v>
+        <v>0.03281597225763039</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01221468450534576</v>
+        <v>0.01221468450534177</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04524902970769475</v>
+        <v>0.04524902970767673</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08763830029442871</v>
+        <v>0.08763830029442878</v>
       </c>
       <c r="V26" t="n">
         <v>0.005991002341600925</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.006168400000007068</v>
+        <v>0.00465289999999996</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2632,13 +2632,13 @@
         <v>0.03406062329087965</v>
       </c>
       <c r="F27" t="n">
-        <v>9.965009040536275</v>
+        <v>9.965009040536268</v>
       </c>
       <c r="G27" t="n">
-        <v>156.7018122947273</v>
+        <v>156.7018122947274</v>
       </c>
       <c r="H27" t="n">
-        <v>9.934223840002421</v>
+        <v>9.934223840002415</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2662,25 +2662,25 @@
         <v>121.430224550622</v>
       </c>
       <c r="P27" t="n">
-        <v>6.904398974212678</v>
+        <v>6.904398974212674</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.004254330213423529</v>
+        <v>0.004254330213422643</v>
       </c>
       <c r="R27" t="n">
-        <v>0.08221488296813609</v>
+        <v>0.08221488296802199</v>
       </c>
       <c r="S27" t="n">
-        <v>0.05452621227160519</v>
+        <v>0.05452621227153105</v>
       </c>
       <c r="T27" t="n">
-        <v>0.09755193245961222</v>
+        <v>0.09755193245947688</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09621185304993318</v>
+        <v>0.09621185304993307</v>
       </c>
       <c r="V27" t="n">
-        <v>0.031804020953188</v>
+        <v>0.03180402095319182</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.01230869999999129</v>
+        <v>0.004769399999998924</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2747,22 +2747,22 @@
         <v>17.11697008678654</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.008174303392440159</v>
+        <v>0.008174303392440125</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07094806484658848</v>
+        <v>0.07094806484659125</v>
       </c>
       <c r="S28" t="n">
-        <v>0.08966583449982987</v>
+        <v>0.08966583449983259</v>
       </c>
       <c r="T28" t="n">
-        <v>0.05940492499856693</v>
+        <v>0.05940492499856715</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08640788081822701</v>
+        <v>0.08640788081822684</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01691319035905157</v>
+        <v>0.01691319035905227</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002515500000001225</v>
+        <v>0.00181219999999982</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,13 +2796,13 @@
         <v>359.9409055055148</v>
       </c>
       <c r="F29" t="n">
-        <v>9.996834243271918</v>
+        <v>9.996834243271916</v>
       </c>
       <c r="G29" t="n">
         <v>76.61786389657318</v>
       </c>
       <c r="H29" t="n">
-        <v>12.80838471214017</v>
+        <v>12.80838471214016</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2829,22 +2829,22 @@
         <v>19.4745982712948</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.008670011437622959</v>
+        <v>0.00867001143762337</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1040776825344086</v>
+        <v>0.1040776825344172</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1781460386260105</v>
+        <v>0.1781460386260278</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03371984158291371</v>
+        <v>0.03371984158291584</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09317253557425861</v>
+        <v>0.09317253557425843</v>
       </c>
       <c r="V29" t="n">
-        <v>0.01518442294574348</v>
+        <v>0.01518442294574283</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003577700000008122</v>
+        <v>0.003526900000000666</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2884,7 +2884,7 @@
         <v>131.1896512927459</v>
       </c>
       <c r="H30" t="n">
-        <v>9.812581399854686</v>
+        <v>9.812581399854677</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2911,22 +2911,22 @@
         <v>10.03355445458794</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.00822202393961933</v>
+        <v>0.008222023939620401</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1506631453362932</v>
+        <v>0.1506631453363264</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1657922295283989</v>
+        <v>0.1657922295284351</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1329095687685716</v>
+        <v>0.1329095687686009</v>
       </c>
       <c r="U30" t="n">
-        <v>0.08623223848146579</v>
+        <v>0.08623223848146574</v>
       </c>
       <c r="V30" t="n">
-        <v>0.03656798858451499</v>
+        <v>0.03656798858451121</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.005572200000003136</v>
+        <v>0.00417500000000004</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -2987,28 +2987,28 @@
         <v>4.383667298314077</v>
       </c>
       <c r="O31" t="n">
-        <v>85.07911381649316</v>
+        <v>85.07911381649315</v>
       </c>
       <c r="P31" t="n">
         <v>4.474707260840514</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.00786286873115489</v>
+        <v>0.007862868731159565</v>
       </c>
       <c r="R31" t="n">
-        <v>0.09379238621110479</v>
+        <v>0.09379238621118867</v>
       </c>
       <c r="S31" t="n">
-        <v>0.06709092900349721</v>
+        <v>0.06709092900355577</v>
       </c>
       <c r="T31" t="n">
-        <v>0.07363410545317768</v>
+        <v>0.07363410545324343</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09052018760498606</v>
+        <v>0.09052018760498577</v>
       </c>
       <c r="V31" t="n">
-        <v>0.08812755775398488</v>
+        <v>0.08812755775399164</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.005653000000009456</v>
+        <v>0.00651279999999943</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3048,7 +3048,7 @@
         <v>115.9297514818015</v>
       </c>
       <c r="H32" t="n">
-        <v>7.497316989102551</v>
+        <v>7.497316989102549</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3069,28 +3069,28 @@
         <v>9.94082687493656</v>
       </c>
       <c r="O32" t="n">
-        <v>69.91457753312346</v>
+        <v>69.91457753312348</v>
       </c>
       <c r="P32" t="n">
-        <v>9.865301872481963</v>
+        <v>9.865301872481961</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.007594600919901844</v>
+        <v>0.007594600919902385</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0859966753472961</v>
+        <v>0.08599667534730523</v>
       </c>
       <c r="S32" t="n">
-        <v>0.09949900737493937</v>
+        <v>0.09949900737495095</v>
       </c>
       <c r="T32" t="n">
-        <v>0.04342464549606746</v>
+        <v>0.04342464549607124</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08958934350337099</v>
+        <v>0.08958934350337106</v>
       </c>
       <c r="V32" t="n">
-        <v>0.04311335512823829</v>
+        <v>0.04311335512823918</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.007425799999992932</v>
+        <v>0.003757200000000793</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3124,7 +3124,7 @@
         <v>0.04869750291271311</v>
       </c>
       <c r="F33" t="n">
-        <v>9.93583512545437</v>
+        <v>9.935835125454368</v>
       </c>
       <c r="G33" t="n">
         <v>51.31981725840525</v>
@@ -3151,25 +3151,25 @@
         <v>23.45979414801152</v>
       </c>
       <c r="O33" t="n">
-        <v>39.00768721572253</v>
+        <v>39.00768721572254</v>
       </c>
       <c r="P33" t="n">
         <v>23.34085422495826</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.008868962332779406</v>
+        <v>0.008868962332779172</v>
       </c>
       <c r="R33" t="n">
-        <v>0.09299437522843716</v>
+        <v>0.09299437522843496</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1470891287815045</v>
+        <v>0.1470891287814983</v>
       </c>
       <c r="T33" t="n">
-        <v>0.09510776921389943</v>
+        <v>0.09510776921389506</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09234416455113223</v>
+        <v>0.09234416455113215</v>
       </c>
       <c r="V33" t="n">
         <v>0.03874455023767131</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.00239189999999212</v>
+        <v>0.001754899999999893</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3212,7 +3212,7 @@
         <v>154.3202238444132</v>
       </c>
       <c r="H34" t="n">
-        <v>7.594981209155643</v>
+        <v>7.594981209155637</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3233,28 +3233,28 @@
         <v>5.067646835573846</v>
       </c>
       <c r="O34" t="n">
-        <v>98.09356180374674</v>
+        <v>98.09356180374679</v>
       </c>
       <c r="P34" t="n">
-        <v>5.158844550156182</v>
+        <v>5.158844550156177</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.008187379807945669</v>
+        <v>0.008187379807929798</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1353709313050111</v>
+        <v>0.1353709313046412</v>
       </c>
       <c r="S34" t="n">
-        <v>0.09377519152596429</v>
+        <v>0.09377519152571127</v>
       </c>
       <c r="T34" t="n">
-        <v>0.124621897959942</v>
+        <v>0.1246218979596016</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09080278186361622</v>
+        <v>0.09080278186361623</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0869130035782148</v>
+        <v>0.08691300357819604</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.006576899999998886</v>
+        <v>0.004941799999999219</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3288,10 +3288,10 @@
         <v>0.09321615377368772</v>
       </c>
       <c r="F35" t="n">
-        <v>9.996029041681137</v>
+        <v>9.996029041681139</v>
       </c>
       <c r="G35" t="n">
-        <v>44.93332640099727</v>
+        <v>44.93332640099728</v>
       </c>
       <c r="H35" t="n">
         <v>8.234080755337738</v>
@@ -3321,19 +3321,19 @@
         <v>16.53191461046978</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.007956461250653064</v>
+        <v>0.007956461250653092</v>
       </c>
       <c r="R35" t="n">
-        <v>0.06401229206935309</v>
+        <v>0.06401229206935304</v>
       </c>
       <c r="S35" t="n">
-        <v>0.06877374204209635</v>
+        <v>0.0687737420420968</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0701987313199073</v>
+        <v>0.07019873131990766</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08646118357738068</v>
+        <v>0.08646118357738071</v>
       </c>
       <c r="V35" t="n">
         <v>0.07582765498715796</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002449499999997329</v>
+        <v>0.001789000000000485</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3403,22 +3403,22 @@
         <v>22.22372282111919</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.007625809589782383</v>
+        <v>0.007625809589782399</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1200822001931278</v>
+        <v>0.1200822001931274</v>
       </c>
       <c r="S36" t="n">
-        <v>0.03707410535383152</v>
+        <v>0.03707410535383149</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2082255388353499</v>
+        <v>0.2082255388353504</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08597398793119052</v>
+        <v>0.08597398793119049</v>
       </c>
       <c r="V36" t="n">
-        <v>0.04994141532318891</v>
+        <v>0.04994141532318819</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001954899999986992</v>
+        <v>0.002176399999999745</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3455,10 +3455,10 @@
         <v>10.03447146260444</v>
       </c>
       <c r="G37" t="n">
-        <v>82.65933319750891</v>
+        <v>82.65933319750893</v>
       </c>
       <c r="H37" t="n">
-        <v>6.73304154408973</v>
+        <v>6.733041544089732</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3479,28 +3479,28 @@
         <v>12.44155687331505</v>
       </c>
       <c r="O37" t="n">
-        <v>47.36903114132574</v>
+        <v>47.36903114132573</v>
       </c>
       <c r="P37" t="n">
         <v>12.47713175041619</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.007660478241399186</v>
+        <v>0.007660478241399538</v>
       </c>
       <c r="R37" t="n">
-        <v>0.06433650672879745</v>
+        <v>0.06433650672880677</v>
       </c>
       <c r="S37" t="n">
-        <v>0.07815277226887209</v>
+        <v>0.07815277226888334</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02715539260609286</v>
+        <v>0.02715539260609325</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09390887754862644</v>
+        <v>0.09390887754862622</v>
       </c>
       <c r="V37" t="n">
-        <v>0.04375771124281353</v>
+        <v>0.04375771124281515</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.00313889999999617</v>
+        <v>0.002320700000000286</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3534,13 +3534,13 @@
         <v>0.0703781856968395</v>
       </c>
       <c r="F38" t="n">
-        <v>9.716866553601834</v>
+        <v>9.716866553601818</v>
       </c>
       <c r="G38" t="n">
         <v>131.2326828867089</v>
       </c>
       <c r="H38" t="n">
-        <v>9.809361221852246</v>
+        <v>9.809361221852226</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3564,25 +3564,25 @@
         <v>93.75241576132116</v>
       </c>
       <c r="P38" t="n">
-        <v>10.05637618184957</v>
+        <v>10.05637618184955</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.007660759861887509</v>
+        <v>0.007660759861887171</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1454816476210939</v>
+        <v>0.1454816476210743</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1640874718218558</v>
+        <v>0.1640874718218351</v>
       </c>
       <c r="T38" t="n">
-        <v>0.1334584595484354</v>
+        <v>0.1334584595484173</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09909275949529141</v>
+        <v>0.09909275949529134</v>
       </c>
       <c r="V38" t="n">
-        <v>0.1630198904341685</v>
+        <v>0.1630198904341767</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.006344699999999648</v>
+        <v>0.004543999999999215</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3649,19 +3649,19 @@
         <v>3.998327172828188</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.003373065483836084</v>
+        <v>0.003373065483836052</v>
       </c>
       <c r="R39" t="n">
-        <v>0.05329367223888514</v>
+        <v>0.05329367223886661</v>
       </c>
       <c r="S39" t="n">
-        <v>0.02112290604294917</v>
+        <v>0.02112290604294224</v>
       </c>
       <c r="T39" t="n">
-        <v>0.05983950772232609</v>
+        <v>0.05983950772230526</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08725043401950876</v>
+        <v>0.08725043401950873</v>
       </c>
       <c r="V39" t="n">
         <v>0.05113329237287127</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.007635200000009945</v>
+        <v>0.004609399999999653</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3731,22 +3731,22 @@
         <v>20.9006784857674</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.008837250106740097</v>
+        <v>0.008837250106739815</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1022369991039283</v>
+        <v>0.1022369991039115</v>
       </c>
       <c r="S40" t="n">
-        <v>0.1749968270384206</v>
+        <v>0.1749968270383931</v>
       </c>
       <c r="T40" t="n">
-        <v>0.05141188174579037</v>
+        <v>0.05141188174578631</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09561456628143043</v>
+        <v>0.09561456628143035</v>
       </c>
       <c r="V40" t="n">
-        <v>0.04682490619348854</v>
+        <v>0.04682490619348081</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.00311150000000282</v>
+        <v>0.0022625000000005</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3810,25 +3810,25 @@
         <v>72.20385339583405</v>
       </c>
       <c r="P41" t="n">
-        <v>16.91824600142311</v>
+        <v>16.91824600142312</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.00863902387095301</v>
+        <v>0.008639023870952483</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1323029948946149</v>
+        <v>0.1323029948945908</v>
       </c>
       <c r="S41" t="n">
-        <v>0.2211835077053493</v>
+        <v>0.2211835077053105</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0513175314621394</v>
+        <v>0.05131753146213037</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09412937459730128</v>
+        <v>0.09412937459730135</v>
       </c>
       <c r="V41" t="n">
-        <v>0.005348797005730871</v>
+        <v>0.005348797005732278</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.005712299999999004</v>
+        <v>0.00531059999999961</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3889,28 +3889,28 @@
         <v>10.18120494273455</v>
       </c>
       <c r="O42" t="n">
-        <v>31.91069157500521</v>
+        <v>31.91069157500523</v>
       </c>
       <c r="P42" t="n">
         <v>10.27557664497938</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.007025967586813258</v>
+        <v>0.007025967586813235</v>
       </c>
       <c r="R42" t="n">
-        <v>0.04489826372667134</v>
+        <v>0.04489826372667048</v>
       </c>
       <c r="S42" t="n">
-        <v>0.04259906764590629</v>
+        <v>0.04259906764590545</v>
       </c>
       <c r="T42" t="n">
-        <v>0.04083743113158492</v>
+        <v>0.04083743113158478</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08718210412369058</v>
+        <v>0.08718210412369043</v>
       </c>
       <c r="V42" t="n">
-        <v>0.06812716503795907</v>
+        <v>0.06812716503795169</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002185600000004229</v>
+        <v>0.001598999999998796</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3950,7 +3950,7 @@
         <v>45.71758423790578</v>
       </c>
       <c r="H43" t="n">
-        <v>3.42444434828894</v>
+        <v>3.424444348288941</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>11.03920746624788</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.006840591807640381</v>
+        <v>0.006840591807640409</v>
       </c>
       <c r="R43" t="n">
-        <v>0.04605002759079436</v>
+        <v>0.04605002759079402</v>
       </c>
       <c r="S43" t="n">
-        <v>0.03411237248964927</v>
+        <v>0.03411237248965034</v>
       </c>
       <c r="T43" t="n">
-        <v>0.06105619124986027</v>
+        <v>0.0610561912498605</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09012156016824481</v>
+        <v>0.09012156016824471</v>
       </c>
       <c r="V43" t="n">
-        <v>0.1379874929349457</v>
+        <v>0.1379874929349451</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002239299999999389</v>
+        <v>0.001572899999999322</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4032,7 +4032,7 @@
         <v>67.57958364716023</v>
       </c>
       <c r="H44" t="n">
-        <v>14.3591219132112</v>
+        <v>14.35912191321121</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4053,28 +4053,28 @@
         <v>22.14193003827787</v>
       </c>
       <c r="O44" t="n">
-        <v>50.73331461695466</v>
+        <v>50.73331461695467</v>
       </c>
       <c r="P44" t="n">
-        <v>22.10098652389588</v>
+        <v>22.10098652389589</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.00884771179328901</v>
+        <v>0.008847711793288991</v>
       </c>
       <c r="R44" t="n">
-        <v>0.106055325399967</v>
+        <v>0.1060553253999629</v>
       </c>
       <c r="S44" t="n">
-        <v>0.1888232270170775</v>
+        <v>0.1888232270170709</v>
       </c>
       <c r="T44" t="n">
-        <v>0.05949638391630149</v>
+        <v>0.05949638391630039</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08439219103641557</v>
+        <v>0.08439219103641556</v>
       </c>
       <c r="V44" t="n">
-        <v>0.02333095901815194</v>
+        <v>0.02333095901815049</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.003082899999995448</v>
+        <v>0.003069099999999381</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4108,7 +4108,7 @@
         <v>359.9769095357144</v>
       </c>
       <c r="F45" t="n">
-        <v>9.93268120576268</v>
+        <v>9.932681205762684</v>
       </c>
       <c r="G45" t="n">
         <v>20.55278505173932</v>
@@ -4141,22 +4141,22 @@
         <v>19.75848558030572</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.007963944072970259</v>
+        <v>0.007963944072970189</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0767213227525744</v>
+        <v>0.07672132275257454</v>
       </c>
       <c r="S45" t="n">
-        <v>0.05226257940594584</v>
+        <v>0.0522625794059447</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1252553427931473</v>
+        <v>0.1252553427931449</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08802906498345077</v>
+        <v>0.08802906498345081</v>
       </c>
       <c r="V45" t="n">
-        <v>0.02906243577212887</v>
+        <v>0.02906243577212857</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.0037923999999947</v>
+        <v>0.001643099999999009</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4223,19 +4223,19 @@
         <v>4.770587873312783</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.006388933751805753</v>
+        <v>0.006388933751805778</v>
       </c>
       <c r="R46" t="n">
-        <v>0.03790538427077345</v>
+        <v>0.03790538427077393</v>
       </c>
       <c r="S46" t="n">
-        <v>0.03352127652217641</v>
+        <v>0.03352127652217646</v>
       </c>
       <c r="T46" t="n">
-        <v>0.01834134905361259</v>
+        <v>0.01834134905361313</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08982516752295591</v>
+        <v>0.08982516752295583</v>
       </c>
       <c r="V46" t="n">
         <v>0.0552659628173448</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.004124900000007869</v>
+        <v>0.003032599999999164</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4278,7 +4278,7 @@
         <v>178.0173520209381</v>
       </c>
       <c r="H47" t="n">
-        <v>9.589204175023667</v>
+        <v>9.589204175023669</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4299,28 +4299,28 @@
         <v>4.410985878453859</v>
       </c>
       <c r="O47" t="n">
-        <v>159.1929658207328</v>
+        <v>159.1929658207329</v>
       </c>
       <c r="P47" t="n">
-        <v>4.410290732667139</v>
+        <v>4.410290732667142</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.002937039005729402</v>
+        <v>0.00293703900572938</v>
       </c>
       <c r="R47" t="n">
-        <v>0.02918986956258019</v>
+        <v>0.02918986956258017</v>
       </c>
       <c r="S47" t="n">
-        <v>0.007275239663992623</v>
+        <v>0.007275239663992695</v>
       </c>
       <c r="T47" t="n">
         <v>0.03570822080478194</v>
       </c>
       <c r="U47" t="n">
-        <v>0.08497857051566984</v>
+        <v>0.0849785705156698</v>
       </c>
       <c r="V47" t="n">
-        <v>0.005094145759140606</v>
+        <v>0.005094145759153347</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.008027999999995927</v>
+        <v>0.006509299999999385</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4384,25 +4384,25 @@
         <v>105.4485091392666</v>
       </c>
       <c r="P48" t="n">
-        <v>9.376120524259415</v>
+        <v>9.376120524259411</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.006257954969105805</v>
+        <v>0.006257954969103235</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1324324336847494</v>
+        <v>0.132432433684616</v>
       </c>
       <c r="S48" t="n">
-        <v>0.1299070793906916</v>
+        <v>0.1299070793905629</v>
       </c>
       <c r="T48" t="n">
-        <v>0.1439683087023332</v>
+        <v>0.1439683087021882</v>
       </c>
       <c r="U48" t="n">
-        <v>0.09265035851176645</v>
+        <v>0.09265035851176624</v>
       </c>
       <c r="V48" t="n">
-        <v>0.07233029999846365</v>
+        <v>0.07233029999846469</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.007913700000003132</v>
+        <v>0.004568700000000092</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4469,19 +4469,19 @@
         <v>24.97227044355077</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.008764077404275178</v>
+        <v>0.00876407740427523</v>
       </c>
       <c r="R49" t="n">
-        <v>0.09312163670615066</v>
+        <v>0.09312163670615056</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0733346844268656</v>
+        <v>0.0733346844268663</v>
       </c>
       <c r="T49" t="n">
-        <v>0.1617034567098525</v>
+        <v>0.1617034567098546</v>
       </c>
       <c r="U49" t="n">
-        <v>0.08961660893064709</v>
+        <v>0.08961660893064725</v>
       </c>
       <c r="V49" t="n">
         <v>0.01502324522224046</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.00214920000000518</v>
+        <v>0.001732399999999856</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4521,7 +4521,7 @@
         <v>9.864877918719122</v>
       </c>
       <c r="G50" t="n">
-        <v>3.061508321464002</v>
+        <v>3.061508321463989</v>
       </c>
       <c r="H50" t="n">
         <v>13.76502812944603</v>
@@ -4551,22 +4551,22 @@
         <v>23.8314877075805</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.007156724727833413</v>
+        <v>0.007156724727833458</v>
       </c>
       <c r="R50" t="n">
-        <v>0.157828309710314</v>
+        <v>0.1578283097103141</v>
       </c>
       <c r="S50" t="n">
-        <v>0.03156151052413027</v>
+        <v>0.03156151052413048</v>
       </c>
       <c r="T50" t="n">
-        <v>0.268635638490541</v>
+        <v>0.2686356384905434</v>
       </c>
       <c r="U50" t="n">
-        <v>0.09167731617326931</v>
+        <v>0.09167731617326942</v>
       </c>
       <c r="V50" t="n">
-        <v>0.02800313158968178</v>
+        <v>0.02800313158968249</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001897800000008942</v>
+        <v>0.001391599999999826</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4633,19 +4633,19 @@
         <v>13.47619088178297</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.007508605890467262</v>
+        <v>0.007508605890467389</v>
       </c>
       <c r="R51" t="n">
-        <v>0.05449645145070569</v>
+        <v>0.05449645145070501</v>
       </c>
       <c r="S51" t="n">
-        <v>0.05586770885433349</v>
+        <v>0.05586770885433468</v>
       </c>
       <c r="T51" t="n">
-        <v>0.05335479321324309</v>
+        <v>0.05335479321324432</v>
       </c>
       <c r="U51" t="n">
-        <v>0.08196370210180684</v>
+        <v>0.08196370210180678</v>
       </c>
       <c r="V51" t="n">
         <v>0.02275741427941334</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002194200000005253</v>
+        <v>0.001911700000000849</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4715,22 +4715,22 @@
         <v>11.04526053884257</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.007417246020992047</v>
+        <v>0.007417246020991987</v>
       </c>
       <c r="R52" t="n">
-        <v>0.05840404960038567</v>
+        <v>0.05840404960038258</v>
       </c>
       <c r="S52" t="n">
-        <v>0.06695758571763415</v>
+        <v>0.06695758571763091</v>
       </c>
       <c r="T52" t="n">
-        <v>0.02498622382710512</v>
+        <v>0.02498622382710531</v>
       </c>
       <c r="U52" t="n">
-        <v>0.08822099040244462</v>
+        <v>0.08822099040244458</v>
       </c>
       <c r="V52" t="n">
-        <v>0.02894343335426564</v>
+        <v>0.02894343335426537</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.003073999999998023</v>
+        <v>0.003933500000000478</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4764,13 +4764,13 @@
         <v>9.841355573755971e-05</v>
       </c>
       <c r="F53" t="n">
-        <v>9.975168808723746</v>
+        <v>9.975168808723748</v>
       </c>
       <c r="G53" t="n">
         <v>121.0519259686478</v>
       </c>
       <c r="H53" t="n">
-        <v>3.522923248079665</v>
+        <v>3.522923248079666</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4791,28 +4791,28 @@
         <v>7.034854823508725</v>
       </c>
       <c r="O53" t="n">
-        <v>42.78281772144627</v>
+        <v>42.78281772144626</v>
       </c>
       <c r="P53" t="n">
-        <v>7.05540081461045</v>
+        <v>7.055400814610453</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.006604192028110813</v>
+        <v>0.006604192028110969</v>
       </c>
       <c r="R53" t="n">
-        <v>0.03956033774280016</v>
+        <v>0.03956033774280011</v>
       </c>
       <c r="S53" t="n">
-        <v>0.03812564443406405</v>
+        <v>0.03812564443406494</v>
       </c>
       <c r="T53" t="n">
-        <v>0.02232151436734673</v>
+        <v>0.02232151436734685</v>
       </c>
       <c r="U53" t="n">
-        <v>0.08758504696726135</v>
+        <v>0.0875850469672613</v>
       </c>
       <c r="V53" t="n">
-        <v>0.04455761021394475</v>
+        <v>0.04455761021394476</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003669900000005555</v>
+        <v>0.002587000000000117</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4876,25 +4876,25 @@
         <v>39.27596440795003</v>
       </c>
       <c r="P54" t="n">
-        <v>5.25520646763341</v>
+        <v>5.255206467633409</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.006167528506883368</v>
+        <v>0.006167528506883285</v>
       </c>
       <c r="R54" t="n">
-        <v>0.03100723774704601</v>
+        <v>0.03100723774704554</v>
       </c>
       <c r="S54" t="n">
-        <v>0.02779530946631334</v>
+        <v>0.02779530946631293</v>
       </c>
       <c r="T54" t="n">
-        <v>0.02176141910746945</v>
+        <v>0.02176141910746901</v>
       </c>
       <c r="U54" t="n">
-        <v>0.0831473088124952</v>
+        <v>0.08314730881249531</v>
       </c>
       <c r="V54" t="n">
-        <v>0.08975578079742776</v>
+        <v>0.08975578079742746</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.003502600000004463</v>
+        <v>0.002588900000001004</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4928,13 +4928,13 @@
         <v>0.0005968923695148979</v>
       </c>
       <c r="F55" t="n">
-        <v>9.90484011541535</v>
+        <v>9.90484011541534</v>
       </c>
       <c r="G55" t="n">
         <v>152.4484432862416</v>
       </c>
       <c r="H55" t="n">
-        <v>9.610889177715924</v>
+        <v>9.610889177715912</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4958,25 +4958,25 @@
         <v>114.2963355128003</v>
       </c>
       <c r="P55" t="n">
-        <v>7.137290905568791</v>
+        <v>7.137290905568784</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.005008626950946536</v>
+        <v>0.005008626950950766</v>
       </c>
       <c r="R55" t="n">
-        <v>0.1031597245320658</v>
+        <v>0.1031597245323388</v>
       </c>
       <c r="S55" t="n">
-        <v>0.07643473490846098</v>
+        <v>0.07643473490866033</v>
       </c>
       <c r="T55" t="n">
-        <v>0.1166647649183511</v>
+        <v>0.1166647649186598</v>
       </c>
       <c r="U55" t="n">
-        <v>0.1008777923820027</v>
+        <v>0.1008777923820025</v>
       </c>
       <c r="V55" t="n">
-        <v>0.05863253987793873</v>
+        <v>0.05863253987794356</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.00621959999999433</v>
+        <v>0.004929199999999412</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5010,13 +5010,13 @@
         <v>0.06868554815151293</v>
       </c>
       <c r="F56" t="n">
-        <v>9.910961571768659</v>
+        <v>9.910961571768658</v>
       </c>
       <c r="G56" t="n">
         <v>75.71176135678894</v>
       </c>
       <c r="H56" t="n">
-        <v>7.214032502741091</v>
+        <v>7.214032502741088</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5043,22 +5043,22 @@
         <v>13.43715420007712</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.007661071421619978</v>
+        <v>0.007661071421619971</v>
       </c>
       <c r="R56" t="n">
-        <v>0.06484785454433971</v>
+        <v>0.0648478545443391</v>
       </c>
       <c r="S56" t="n">
-        <v>0.08122442769511175</v>
+        <v>0.0812244276951118</v>
       </c>
       <c r="T56" t="n">
-        <v>0.03173499360723206</v>
+        <v>0.03173499360723213</v>
       </c>
       <c r="U56" t="n">
-        <v>0.08847570604688648</v>
+        <v>0.0884757060468865</v>
       </c>
       <c r="V56" t="n">
-        <v>0.08252074230806727</v>
+        <v>0.08252074230807571</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.00287670000000162</v>
+        <v>0.001778599999999741</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5095,7 +5095,7 @@
         <v>10.02288427835615</v>
       </c>
       <c r="G57" t="n">
-        <v>16.83352606211025</v>
+        <v>16.83352606211023</v>
       </c>
       <c r="H57" t="n">
         <v>14.73919653647856</v>
@@ -5122,25 +5122,25 @@
         <v>14.48728809285419</v>
       </c>
       <c r="P57" t="n">
-        <v>25.13488040188482</v>
+        <v>25.13488040188481</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.008635526479563369</v>
+        <v>0.008635526479563347</v>
       </c>
       <c r="R57" t="n">
-        <v>0.09788946217714231</v>
+        <v>0.09788946217714385</v>
       </c>
       <c r="S57" t="n">
-        <v>0.06510086978805459</v>
+        <v>0.06510086978805632</v>
       </c>
       <c r="T57" t="n">
-        <v>0.1744878602053055</v>
+        <v>0.1744878602053068</v>
       </c>
       <c r="U57" t="n">
-        <v>0.08796722459210711</v>
+        <v>0.08796722459210699</v>
       </c>
       <c r="V57" t="n">
-        <v>0.03245670020715909</v>
+        <v>0.0324567002071573</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002181200000009653</v>
+        <v>0.001701399999999964</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5180,7 +5180,7 @@
         <v>177.2673116884112</v>
       </c>
       <c r="H58" t="n">
-        <v>6.960882917758512</v>
+        <v>6.960882917758513</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5207,22 +5207,22 @@
         <v>1.862075611738176</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.003219093335130584</v>
+        <v>0.003219093335130586</v>
       </c>
       <c r="R58" t="n">
-        <v>0.03858333553210599</v>
+        <v>0.03858333553211321</v>
       </c>
       <c r="S58" t="n">
-        <v>0.01232367022278195</v>
+        <v>0.01232367022278386</v>
       </c>
       <c r="T58" t="n">
-        <v>0.03737951270853346</v>
+        <v>0.03737951270854045</v>
       </c>
       <c r="U58" t="n">
-        <v>0.08613971735836194</v>
+        <v>0.08613971735836201</v>
       </c>
       <c r="V58" t="n">
-        <v>0.06700893616845816</v>
+        <v>0.06700893616845784</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.007593199999988087</v>
+        <v>0.004526900000000111</v>
       </c>
       <c r="Y58" t="n">
         <v>25</v>
@@ -5256,13 +5256,13 @@
         <v>359.9730144356035</v>
       </c>
       <c r="F59" t="n">
-        <v>9.894220609096273</v>
+        <v>9.894220609096269</v>
       </c>
       <c r="G59" t="n">
-        <v>15.45477167881832</v>
+        <v>15.45477167881831</v>
       </c>
       <c r="H59" t="n">
-        <v>5.943228784035043</v>
+        <v>5.943228784035044</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5289,22 +5289,22 @@
         <v>14.48022619574288</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.006820092270687851</v>
+        <v>0.006820092270687907</v>
       </c>
       <c r="R59" t="n">
-        <v>0.06780484864396713</v>
+        <v>0.0678048486439677</v>
       </c>
       <c r="S59" t="n">
-        <v>0.03040748803846939</v>
+        <v>0.03040748803846969</v>
       </c>
       <c r="T59" t="n">
-        <v>0.109664577193832</v>
+        <v>0.1096645771938333</v>
       </c>
       <c r="U59" t="n">
-        <v>0.09818003311662976</v>
+        <v>0.09818003311662983</v>
       </c>
       <c r="V59" t="n">
-        <v>0.09892399608276256</v>
+        <v>0.09892399608276292</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002188500000002591</v>
+        <v>0.00159859999999945</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5371,19 +5371,19 @@
         <v>15.27344003312564</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.007854640367550968</v>
+        <v>0.007854640367551123</v>
       </c>
       <c r="R60" t="n">
-        <v>0.06720571702518217</v>
+        <v>0.06720571702518183</v>
       </c>
       <c r="S60" t="n">
-        <v>0.08720282705723834</v>
+        <v>0.08720282705724029</v>
       </c>
       <c r="T60" t="n">
-        <v>0.04299413843605798</v>
+        <v>0.04299413843605943</v>
       </c>
       <c r="U60" t="n">
-        <v>0.0846236229052194</v>
+        <v>0.08462362290521941</v>
       </c>
       <c r="V60" t="n">
         <v>0.09905127916784662</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.003298799999996049</v>
+        <v>0.002792999999998713</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5426,7 +5426,7 @@
         <v>166.6326179601183</v>
       </c>
       <c r="H61" t="n">
-        <v>4.862699455962476</v>
+        <v>4.862699455962475</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5447,28 +5447,28 @@
         <v>3.059300117780022</v>
       </c>
       <c r="O61" t="n">
-        <v>56.68934008898236</v>
+        <v>56.68934008898233</v>
       </c>
       <c r="P61" t="n">
         <v>3.020951869059322</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.006113649224332591</v>
+        <v>0.006113649224332694</v>
       </c>
       <c r="R61" t="n">
-        <v>0.0343444364091624</v>
+        <v>0.03434443640916377</v>
       </c>
       <c r="S61" t="n">
-        <v>0.02782967895948597</v>
+        <v>0.0278296789594869</v>
       </c>
       <c r="T61" t="n">
-        <v>0.01788595270023681</v>
+        <v>0.01788595270023738</v>
       </c>
       <c r="U61" t="n">
-        <v>0.09035872421175391</v>
+        <v>0.09035872421175384</v>
       </c>
       <c r="V61" t="n">
-        <v>0.06345255778630415</v>
+        <v>0.0634525577863046</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.004824599999992074</v>
+        <v>0.004015900000000627</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5502,13 +5502,13 @@
         <v>359.9623513177883</v>
       </c>
       <c r="F62" t="n">
-        <v>10.07631474379992</v>
+        <v>10.07631474379991</v>
       </c>
       <c r="G62" t="n">
-        <v>54.35019604799842</v>
+        <v>54.35019604799841</v>
       </c>
       <c r="H62" t="n">
-        <v>5.32541126739921</v>
+        <v>5.325411267399211</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5535,22 +5535,22 @@
         <v>12.86472884436431</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.007457835001360183</v>
+        <v>0.007457835001360207</v>
       </c>
       <c r="R62" t="n">
-        <v>0.05272665321641105</v>
+        <v>0.05272665321641103</v>
       </c>
       <c r="S62" t="n">
         <v>0.05118822945957911</v>
       </c>
       <c r="T62" t="n">
-        <v>0.05358928510744438</v>
+        <v>0.05358928510744469</v>
       </c>
       <c r="U62" t="n">
-        <v>0.09642460070408408</v>
+        <v>0.09642460070408397</v>
       </c>
       <c r="V62" t="n">
-        <v>0.08192593332048084</v>
+        <v>0.08192593332048126</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.003742800000011925</v>
+        <v>0.001685399999999504</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5590,7 +5590,7 @@
         <v>148.3710015266738</v>
       </c>
       <c r="H63" t="n">
-        <v>5.210579515537252</v>
+        <v>5.210579515537251</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5614,25 +5614,25 @@
         <v>64.74952754961426</v>
       </c>
       <c r="P63" t="n">
-        <v>4.92284290487139</v>
+        <v>4.922842904871388</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.006794712617102408</v>
+        <v>0.006794712617101775</v>
       </c>
       <c r="R63" t="n">
-        <v>0.05312025321571752</v>
+        <v>0.05312025321571165</v>
       </c>
       <c r="S63" t="n">
-        <v>0.04492992887984211</v>
+        <v>0.04492992887983616</v>
       </c>
       <c r="T63" t="n">
-        <v>0.02923109715030212</v>
+        <v>0.02923109715029977</v>
       </c>
       <c r="U63" t="n">
-        <v>0.09280936025851444</v>
+        <v>0.09280936025851438</v>
       </c>
       <c r="V63" t="n">
-        <v>0.04300451766593454</v>
+        <v>0.04300451766593349</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.005018500000005588</v>
+        <v>0.003920500000001326</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5672,7 +5672,7 @@
         <v>6.152205045459022</v>
       </c>
       <c r="H64" t="n">
-        <v>8.7433960281402</v>
+        <v>8.743396028140202</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5699,22 +5699,22 @@
         <v>18.09877937040987</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.006989690377250247</v>
+        <v>0.006989690377250179</v>
       </c>
       <c r="R64" t="n">
-        <v>0.1058229151374042</v>
+        <v>0.1058229151374037</v>
       </c>
       <c r="S64" t="n">
-        <v>0.02904931367167587</v>
+        <v>0.02904931367167558</v>
       </c>
       <c r="T64" t="n">
-        <v>0.1762460212236406</v>
+        <v>0.1762460212236386</v>
       </c>
       <c r="U64" t="n">
-        <v>0.08043967933881857</v>
+        <v>0.08043967933881856</v>
       </c>
       <c r="V64" t="n">
-        <v>0.04238717142668189</v>
+        <v>0.04238717142668139</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.003439599999992993</v>
+        <v>0.001472700000000771</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5754,7 +5754,7 @@
         <v>99.78018355818169</v>
       </c>
       <c r="H65" t="n">
-        <v>7.810037331757806</v>
+        <v>7.810037331757808</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5778,25 +5778,25 @@
         <v>60.66141334626627</v>
       </c>
       <c r="P65" t="n">
-        <v>11.93363973189885</v>
+        <v>11.93363973189886</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.007787993546026578</v>
+        <v>0.007787993546026942</v>
       </c>
       <c r="R65" t="n">
-        <v>0.08020789353387947</v>
+        <v>0.0802078935338902</v>
       </c>
       <c r="S65" t="n">
-        <v>0.1016131014193157</v>
+        <v>0.1016131014193288</v>
       </c>
       <c r="T65" t="n">
-        <v>0.02586499218379586</v>
+        <v>0.02586499218379785</v>
       </c>
       <c r="U65" t="n">
-        <v>0.08633804696825043</v>
+        <v>0.08633804696825036</v>
       </c>
       <c r="V65" t="n">
-        <v>0.02988578674102483</v>
+        <v>0.0298857867410259</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.00440999999999292</v>
+        <v>0.004008600000000584</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5863,19 +5863,19 @@
         <v>16.83315548271809</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.008178066583940434</v>
+        <v>0.008178066583940326</v>
       </c>
       <c r="R66" t="n">
-        <v>0.07866574574815156</v>
+        <v>0.07866574574814637</v>
       </c>
       <c r="S66" t="n">
-        <v>0.111158944092416</v>
+        <v>0.1111589440924083</v>
       </c>
       <c r="T66" t="n">
-        <v>0.04262022708773291</v>
+        <v>0.04262022708773178</v>
       </c>
       <c r="U66" t="n">
-        <v>0.09718463455265719</v>
+        <v>0.09718463455265713</v>
       </c>
       <c r="V66" t="n">
         <v>0.01496473844290292</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.004127100000005157</v>
+        <v>0.001949400000000878</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5918,7 +5918,7 @@
         <v>39.14012190501722</v>
       </c>
       <c r="H67" t="n">
-        <v>3.374402914641366</v>
+        <v>3.374402914641367</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5945,22 +5945,22 @@
         <v>11.15606305286354</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.006753376131886722</v>
+        <v>0.006753376131886801</v>
       </c>
       <c r="R67" t="n">
-        <v>0.04751524009035465</v>
+        <v>0.04751524009035393</v>
       </c>
       <c r="S67" t="n">
-        <v>0.03176808120194143</v>
+        <v>0.03176808120194182</v>
       </c>
       <c r="T67" t="n">
-        <v>0.06700137535502633</v>
+        <v>0.06700137535502725</v>
       </c>
       <c r="U67" t="n">
-        <v>0.0893006357364159</v>
+        <v>0.08930063573641597</v>
       </c>
       <c r="V67" t="n">
-        <v>0.01430566861999944</v>
+        <v>0.01430566861999852</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002164399999998068</v>
+        <v>0.001749199999999007</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6027,16 +6027,16 @@
         <v>12.73293217722555</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.006886339385740473</v>
+        <v>0.00688633938574051</v>
       </c>
       <c r="R68" t="n">
-        <v>0.05430621662454505</v>
+        <v>0.05430621662454526</v>
       </c>
       <c r="S68" t="n">
-        <v>0.03290875096909226</v>
+        <v>0.03290875096909247</v>
       </c>
       <c r="T68" t="n">
-        <v>0.08160904382022077</v>
+        <v>0.08160904382022161</v>
       </c>
       <c r="U68" t="n">
         <v>0.08831909526760388</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002185600000004229</v>
+        <v>0.003290400000000915</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,13 +6076,13 @@
         <v>0.08216035567411381</v>
       </c>
       <c r="F69" t="n">
-        <v>9.853735170720768</v>
+        <v>9.853735170720764</v>
       </c>
       <c r="G69" t="n">
         <v>98.16295355076036</v>
       </c>
       <c r="H69" t="n">
-        <v>13.03336334737903</v>
+        <v>13.03336334737902</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6103,28 +6103,28 @@
         <v>17.71985515776622</v>
       </c>
       <c r="O69" t="n">
-        <v>73.24777452076208</v>
+        <v>73.24777452076209</v>
       </c>
       <c r="P69" t="n">
-        <v>17.40481664126551</v>
+        <v>17.4048166412655</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.00848722168159124</v>
+        <v>0.008487221681593281</v>
       </c>
       <c r="R69" t="n">
-        <v>0.1358794330473837</v>
+        <v>0.1358794330474665</v>
       </c>
       <c r="S69" t="n">
-        <v>0.2360082261551396</v>
+        <v>0.236008226155282</v>
       </c>
       <c r="T69" t="n">
-        <v>0.05398094336070518</v>
+        <v>0.05398094336073588</v>
       </c>
       <c r="U69" t="n">
-        <v>0.08784935445146685</v>
+        <v>0.08784935445146666</v>
       </c>
       <c r="V69" t="n">
-        <v>0.09661878274819816</v>
+        <v>0.09661878274820049</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004789299999998775</v>
+        <v>0.003639299999999679</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6158,13 +6158,13 @@
         <v>359.9741711935127</v>
       </c>
       <c r="F70" t="n">
-        <v>9.981924198172337</v>
+        <v>9.981924198172335</v>
       </c>
       <c r="G70" t="n">
-        <v>46.73454740986201</v>
+        <v>46.73454740986199</v>
       </c>
       <c r="H70" t="n">
-        <v>3.503108521366724</v>
+        <v>3.503108521366725</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6191,22 +6191,22 @@
         <v>11.08436084693041</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.006854655098166858</v>
+        <v>0.006854655098166897</v>
       </c>
       <c r="R70" t="n">
-        <v>0.04596751618141449</v>
+        <v>0.0459675161814143</v>
       </c>
       <c r="S70" t="n">
-        <v>0.03478154503878294</v>
+        <v>0.03478154503878286</v>
       </c>
       <c r="T70" t="n">
-        <v>0.06002691944655758</v>
+        <v>0.06002691944655823</v>
       </c>
       <c r="U70" t="n">
-        <v>0.0905724871423786</v>
+        <v>0.09057248714237874</v>
       </c>
       <c r="V70" t="n">
-        <v>0.02253734755283872</v>
+        <v>0.0225373475528377</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.00219299999999123</v>
+        <v>0.001701800000001086</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,13 +6240,13 @@
         <v>0.06622076396579761</v>
       </c>
       <c r="F71" t="n">
-        <v>9.815197424386392</v>
+        <v>9.81519742438639</v>
       </c>
       <c r="G71" t="n">
-        <v>53.09930024046347</v>
+        <v>53.09930024046346</v>
       </c>
       <c r="H71" t="n">
-        <v>12.40244676817059</v>
+        <v>12.40244676817058</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="M71" t="n">
-        <v>39.09766949772916</v>
+        <v>39.09766949772915</v>
       </c>
       <c r="N71" t="n">
         <v>21.2511977384674</v>
@@ -6273,22 +6273,22 @@
         <v>20.77286213747506</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.008490003471528642</v>
+        <v>0.008490003471528942</v>
       </c>
       <c r="R71" t="n">
-        <v>0.08309658874524667</v>
+        <v>0.08309658874524968</v>
       </c>
       <c r="S71" t="n">
-        <v>0.123359782125437</v>
+        <v>0.1233597821254446</v>
       </c>
       <c r="T71" t="n">
-        <v>0.07699725275992116</v>
+        <v>0.07699725275992625</v>
       </c>
       <c r="U71" t="n">
-        <v>0.09409830142018542</v>
+        <v>0.09409830142018541</v>
       </c>
       <c r="V71" t="n">
-        <v>0.1184654861714865</v>
+        <v>0.1184654861714871</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002443499999998267</v>
+        <v>0.001992100000000718</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6352,25 +6352,25 @@
         <v>149.9977994062215</v>
       </c>
       <c r="P72" t="n">
-        <v>9.678383083290612</v>
+        <v>9.678383083290608</v>
       </c>
       <c r="Q72" t="n">
         <v>0.003321299390875399</v>
       </c>
       <c r="R72" t="n">
-        <v>0.03745172301025312</v>
+        <v>0.03745172301025933</v>
       </c>
       <c r="S72" t="n">
-        <v>0.02092924534809834</v>
+        <v>0.02092924534810156</v>
       </c>
       <c r="T72" t="n">
-        <v>0.05840171584873933</v>
+        <v>0.05840171584874901</v>
       </c>
       <c r="U72" t="n">
-        <v>0.09112208244448212</v>
+        <v>0.09112208244448219</v>
       </c>
       <c r="V72" t="n">
-        <v>0.02133789961521713</v>
+        <v>0.02133789961521618</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.007782500000004688</v>
+        <v>0.004457999999999629</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6407,10 +6407,10 @@
         <v>10.04680785620253</v>
       </c>
       <c r="G73" t="n">
-        <v>33.60261211275864</v>
+        <v>33.60261211275865</v>
       </c>
       <c r="H73" t="n">
-        <v>7.571619755152539</v>
+        <v>7.57161975515254</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6431,28 +6431,28 @@
         <v>16.27104575612665</v>
       </c>
       <c r="O73" t="n">
-        <v>22.46715176818334</v>
+        <v>22.46715176818335</v>
       </c>
       <c r="P73" t="n">
         <v>16.22996526661857</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.007777441849631357</v>
+        <v>0.007777441849631329</v>
       </c>
       <c r="R73" t="n">
-        <v>0.06219573968492343</v>
+        <v>0.06219573968492428</v>
       </c>
       <c r="S73" t="n">
-        <v>0.05322208940778366</v>
+        <v>0.05322208940778401</v>
       </c>
       <c r="T73" t="n">
-        <v>0.08447726471788738</v>
+        <v>0.08447726471788708</v>
       </c>
       <c r="U73" t="n">
-        <v>0.08812733277315904</v>
+        <v>0.08812733277315915</v>
       </c>
       <c r="V73" t="n">
-        <v>0.03209697800556455</v>
+        <v>0.03209697800556389</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002197599999988142</v>
+        <v>0.00170510000000057</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6519,22 +6519,22 @@
         <v>20.92369673552158</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.008116747012448853</v>
+        <v>0.008116747012449037</v>
       </c>
       <c r="R74" t="n">
-        <v>0.08178122187448142</v>
+        <v>0.08178122187448127</v>
       </c>
       <c r="S74" t="n">
-        <v>0.05437732995624431</v>
+        <v>0.05437732995624546</v>
       </c>
       <c r="T74" t="n">
-        <v>0.1365480396363356</v>
+        <v>0.1365480396363401</v>
       </c>
       <c r="U74" t="n">
         <v>0.0908326036168336</v>
       </c>
       <c r="V74" t="n">
-        <v>0.02413078322471629</v>
+        <v>0.0241307832247159</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002210099999999215</v>
+        <v>0.001718999999999582</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6595,28 +6595,28 @@
         <v>11.66724248977646</v>
       </c>
       <c r="O75" t="n">
-        <v>77.88303936869701</v>
+        <v>77.88303936869703</v>
       </c>
       <c r="P75" t="n">
         <v>11.91401377723126</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.008338447112058925</v>
+        <v>0.008338447112057409</v>
       </c>
       <c r="R75" t="n">
-        <v>0.1224668748660221</v>
+        <v>0.1224668748659744</v>
       </c>
       <c r="S75" t="n">
-        <v>0.1562868621798661</v>
+        <v>0.1562868621798066</v>
       </c>
       <c r="T75" t="n">
-        <v>0.07539350977488017</v>
+        <v>0.075393509774851</v>
       </c>
       <c r="U75" t="n">
-        <v>0.08194394120007553</v>
+        <v>0.08194394120007545</v>
       </c>
       <c r="V75" t="n">
-        <v>0.1136938332333804</v>
+        <v>0.1136938332333802</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.005332300000006285</v>
+        <v>0.003972200000001536</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6677,28 +6677,28 @@
         <v>21.80818795837916</v>
       </c>
       <c r="O76" t="n">
-        <v>27.31409344717084</v>
+        <v>27.31409344717083</v>
       </c>
       <c r="P76" t="n">
         <v>21.77274724489023</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.008617716541816745</v>
+        <v>0.008617716541816627</v>
       </c>
       <c r="R76" t="n">
-        <v>0.07970633050449104</v>
+        <v>0.07970633050448868</v>
       </c>
       <c r="S76" t="n">
-        <v>0.09189986006103502</v>
+        <v>0.09189986006103018</v>
       </c>
       <c r="T76" t="n">
-        <v>0.1069844911419549</v>
+        <v>0.1069844911419506</v>
       </c>
       <c r="U76" t="n">
         <v>0.08195464616187705</v>
       </c>
       <c r="V76" t="n">
-        <v>0.009905988069526441</v>
+        <v>0.009905988069526084</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.003872999999998683</v>
+        <v>0.002626700000000426</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6762,25 +6762,25 @@
         <v>41.31495645089004</v>
       </c>
       <c r="P77" t="n">
-        <v>8.617817043600244</v>
+        <v>8.617817043600242</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.006956915099005285</v>
+        <v>0.006956915099005513</v>
       </c>
       <c r="R77" t="n">
-        <v>0.04493956704247522</v>
+        <v>0.04493956704247284</v>
       </c>
       <c r="S77" t="n">
-        <v>0.04499991216468148</v>
+        <v>0.04499991216468095</v>
       </c>
       <c r="T77" t="n">
-        <v>0.0259571048916421</v>
+        <v>0.02595710489164307</v>
       </c>
       <c r="U77" t="n">
-        <v>0.08629893804558009</v>
+        <v>0.08629893804558</v>
       </c>
       <c r="V77" t="n">
-        <v>0.09039944856548922</v>
+        <v>0.09039944856548858</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002863800000000083</v>
+        <v>0.002094700000000671</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6814,7 +6814,7 @@
         <v>359.9759240516551</v>
       </c>
       <c r="F78" t="n">
-        <v>10.00952690218122</v>
+        <v>10.00952690218121</v>
       </c>
       <c r="G78" t="n">
         <v>56.03540989346659</v>
@@ -6841,28 +6841,28 @@
         <v>21.21280471567252</v>
       </c>
       <c r="O78" t="n">
-        <v>41.0755401766918</v>
+        <v>41.07554017669181</v>
       </c>
       <c r="P78" t="n">
-        <v>21.22938080940597</v>
+        <v>21.22938080940596</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.008722103242011241</v>
+        <v>0.008722103242011274</v>
       </c>
       <c r="R78" t="n">
-        <v>0.0887642302996024</v>
+        <v>0.08876423029960739</v>
       </c>
       <c r="S78" t="n">
-        <v>0.1359422408361765</v>
+        <v>0.1359422408361842</v>
       </c>
       <c r="T78" t="n">
-        <v>0.07556794053703189</v>
+        <v>0.07556794053703451</v>
       </c>
       <c r="U78" t="n">
-        <v>0.08582364143905787</v>
+        <v>0.08582364143905773</v>
       </c>
       <c r="V78" t="n">
-        <v>0.0184844137651025</v>
+        <v>0.01848441376510159</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002409799999995244</v>
+        <v>0.001814700000000613</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6896,7 +6896,7 @@
         <v>0.007454386719924592</v>
       </c>
       <c r="F79" t="n">
-        <v>9.940994860894957</v>
+        <v>9.940994860894955</v>
       </c>
       <c r="G79" t="n">
         <v>165.4758046878212</v>
@@ -6926,25 +6926,25 @@
         <v>138.9572300849901</v>
       </c>
       <c r="P79" t="n">
-        <v>6.654685095222442</v>
+        <v>6.65468509522244</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.003438084646093553</v>
+        <v>0.003438084646093548</v>
       </c>
       <c r="R79" t="n">
-        <v>0.0482109183603722</v>
+        <v>0.04821091836035381</v>
       </c>
       <c r="S79" t="n">
-        <v>0.02417837132094488</v>
+        <v>0.02417837132093626</v>
       </c>
       <c r="T79" t="n">
-        <v>0.06266702414081328</v>
+        <v>0.06266702414078935</v>
       </c>
       <c r="U79" t="n">
-        <v>0.08961370137466916</v>
+        <v>0.08961370137466941</v>
       </c>
       <c r="V79" t="n">
-        <v>0.03499812594468812</v>
+        <v>0.03499812594468939</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.005918600000001106</v>
+        <v>0.005272300000001451</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -7011,22 +7011,22 @@
         <v>20.95843843441805</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.007620198681400201</v>
+        <v>0.007620198681400158</v>
       </c>
       <c r="R80" t="n">
-        <v>0.1064727587722612</v>
+        <v>0.1064727587722619</v>
       </c>
       <c r="S80" t="n">
-        <v>0.03778495983025916</v>
+        <v>0.03778495983025854</v>
       </c>
       <c r="T80" t="n">
-        <v>0.1836979329842044</v>
+        <v>0.1836979329842028</v>
       </c>
       <c r="U80" t="n">
-        <v>0.0903714126128799</v>
+        <v>0.09037141261288002</v>
       </c>
       <c r="V80" t="n">
-        <v>0.04004263265704746</v>
+        <v>0.04004263265704786</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.00356920000000116</v>
+        <v>0.001398299999999963</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7060,7 +7060,7 @@
         <v>359.9155709186005</v>
       </c>
       <c r="F81" t="n">
-        <v>10.02870061638073</v>
+        <v>10.02870061638072</v>
       </c>
       <c r="G81" t="n">
         <v>89.87848744121558</v>
@@ -7087,28 +7087,28 @@
         <v>13.66352932901044</v>
       </c>
       <c r="O81" t="n">
-        <v>57.37592534894977</v>
+        <v>57.37592534894979</v>
       </c>
       <c r="P81" t="n">
         <v>13.7899589938502</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.008018604803735027</v>
+        <v>0.008018604803734683</v>
       </c>
       <c r="R81" t="n">
-        <v>0.08277448221753901</v>
+        <v>0.08277448221753118</v>
       </c>
       <c r="S81" t="n">
-        <v>0.1132976251755657</v>
+        <v>0.1132976251755549</v>
       </c>
       <c r="T81" t="n">
-        <v>0.02238283901836544</v>
+        <v>0.02238283901836523</v>
       </c>
       <c r="U81" t="n">
-        <v>0.08498888261005538</v>
+        <v>0.0849888826100554</v>
       </c>
       <c r="V81" t="n">
-        <v>0.05559338808479709</v>
+        <v>0.05559338808478977</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003754899999989902</v>
+        <v>0.002671699999998722</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7175,22 +7175,22 @@
         <v>16.27064720370977</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.008499868047081267</v>
+        <v>0.008499868047080543</v>
       </c>
       <c r="R82" t="n">
-        <v>0.1142720033185145</v>
+        <v>0.1142720033184916</v>
       </c>
       <c r="S82" t="n">
-        <v>0.1808496121902092</v>
+        <v>0.1808496121901727</v>
       </c>
       <c r="T82" t="n">
-        <v>0.032712725102187</v>
+        <v>0.03271272510218266</v>
       </c>
       <c r="U82" t="n">
-        <v>0.0858737102514968</v>
+        <v>0.0858737102514969</v>
       </c>
       <c r="V82" t="n">
-        <v>0.05844826008066339</v>
+        <v>0.05844826008066378</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.006204999999994243</v>
+        <v>0.003464900000000881</v>
       </c>
       <c r="Y82" t="n">
         <v>18</v>
@@ -7230,7 +7230,7 @@
         <v>64.51672971762729</v>
       </c>
       <c r="H83" t="n">
-        <v>7.087667840753274</v>
+        <v>7.087667840753275</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7254,25 +7254,25 @@
         <v>38.49057013176383</v>
       </c>
       <c r="P83" t="n">
-        <v>14.23614694381938</v>
+        <v>14.23614694381939</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.007819341188436225</v>
+        <v>0.00781934118843648</v>
       </c>
       <c r="R83" t="n">
-        <v>0.06288212961783006</v>
+        <v>0.06288212961783396</v>
       </c>
       <c r="S83" t="n">
-        <v>0.07382411723269774</v>
+        <v>0.0738241172327046</v>
       </c>
       <c r="T83" t="n">
-        <v>0.04438557273992589</v>
+        <v>0.04438557273992801</v>
       </c>
       <c r="U83" t="n">
-        <v>0.09102940269361381</v>
+        <v>0.09102940269361379</v>
       </c>
       <c r="V83" t="n">
-        <v>0.03872866668689495</v>
+        <v>0.03872866668689485</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002423500000006129</v>
+        <v>0.001810900000000615</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7306,13 +7306,13 @@
         <v>359.947970073248</v>
       </c>
       <c r="F84" t="n">
-        <v>9.977127297388678</v>
+        <v>9.977127297388671</v>
       </c>
       <c r="G84" t="n">
-        <v>49.38569941449545</v>
+        <v>49.38569941449543</v>
       </c>
       <c r="H84" t="n">
-        <v>10.74999312277732</v>
+        <v>10.74999312277731</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7336,25 +7336,25 @@
         <v>34.80408573426663</v>
       </c>
       <c r="P84" t="n">
-        <v>19.19135771393137</v>
+        <v>19.19135771393136</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.008399979713924545</v>
+        <v>0.008399979713924206</v>
       </c>
       <c r="R84" t="n">
-        <v>0.07558526917026517</v>
+        <v>0.07558526917026054</v>
       </c>
       <c r="S84" t="n">
-        <v>0.09802035237406748</v>
+        <v>0.09802035237405884</v>
       </c>
       <c r="T84" t="n">
-        <v>0.07479730994928008</v>
+        <v>0.07479730994927458</v>
       </c>
       <c r="U84" t="n">
-        <v>0.09701509538382688</v>
+        <v>0.09701509538382673</v>
       </c>
       <c r="V84" t="n">
-        <v>0.03208674707822055</v>
+        <v>0.03208674707821796</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.004129999999989309</v>
+        <v>0.001795300000001276</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7388,13 +7388,13 @@
         <v>0.006330022644319514</v>
       </c>
       <c r="F85" t="n">
-        <v>9.925418255134296</v>
+        <v>9.925418255134291</v>
       </c>
       <c r="G85" t="n">
         <v>46.16351859880147</v>
       </c>
       <c r="H85" t="n">
-        <v>11.09813706406222</v>
+        <v>11.09813706406221</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7415,28 +7415,28 @@
         <v>19.91760304290331</v>
       </c>
       <c r="O85" t="n">
-        <v>33.10049180033648</v>
+        <v>33.10049180033649</v>
       </c>
       <c r="P85" t="n">
-        <v>19.73582076260352</v>
+        <v>19.73582076260351</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.008399610540110252</v>
+        <v>0.008399610540109853</v>
       </c>
       <c r="R85" t="n">
-        <v>0.07569743003225059</v>
+        <v>0.07569743003224665</v>
       </c>
       <c r="S85" t="n">
-        <v>0.09656332689523905</v>
+        <v>0.09656332689522983</v>
       </c>
       <c r="T85" t="n">
-        <v>0.08145186179458605</v>
+        <v>0.08145186179457839</v>
       </c>
       <c r="U85" t="n">
-        <v>0.08910048525024054</v>
+        <v>0.08910048525024075</v>
       </c>
       <c r="V85" t="n">
-        <v>0.04985125149793038</v>
+        <v>0.04985125149793285</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002540599999989013</v>
+        <v>0.001893799999999501</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7476,7 +7476,7 @@
         <v>8.158864339008709</v>
       </c>
       <c r="H86" t="n">
-        <v>7.429626467666778</v>
+        <v>7.429626467666776</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7500,25 +7500,25 @@
         <v>8.572915667719736</v>
       </c>
       <c r="P86" t="n">
-        <v>16.44345001342569</v>
+        <v>16.44345001342568</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.006904819267890604</v>
+        <v>0.006904819267890556</v>
       </c>
       <c r="R86" t="n">
-        <v>0.09044300894356255</v>
+        <v>0.09044300894356153</v>
       </c>
       <c r="S86" t="n">
-        <v>0.02855569223181428</v>
+        <v>0.02855569223181449</v>
       </c>
       <c r="T86" t="n">
-        <v>0.1493798256914503</v>
+        <v>0.1493798256914487</v>
       </c>
       <c r="U86" t="n">
         <v>0.1005650297311264</v>
       </c>
       <c r="V86" t="n">
-        <v>0.02203000656079015</v>
+        <v>0.02203000656079038</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.002080300000002921</v>
+        <v>0.001388599999998519</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7558,7 +7558,7 @@
         <v>111.6366855099489</v>
       </c>
       <c r="H87" t="n">
-        <v>9.1786963222252</v>
+        <v>9.178696322225203</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7585,22 +7585,22 @@
         <v>11.8978371735925</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.008062633873703104</v>
+        <v>0.008062633873703288</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1078218296708271</v>
+        <v>0.1078218296708352</v>
       </c>
       <c r="S87" t="n">
-        <v>0.1391003488066099</v>
+        <v>0.1391003488066198</v>
       </c>
       <c r="T87" t="n">
-        <v>0.05693748187798629</v>
+        <v>0.05693748187799057</v>
       </c>
       <c r="U87" t="n">
-        <v>0.09183439542835531</v>
+        <v>0.09183439542835517</v>
       </c>
       <c r="V87" t="n">
-        <v>0.03293058527056505</v>
+        <v>0.03293058527056678</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.005443900000003055</v>
+        <v>0.00486639999999916</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7637,10 +7637,10 @@
         <v>10.00803430033927</v>
       </c>
       <c r="G88" t="n">
-        <v>36.71339870963969</v>
+        <v>36.7133987096397</v>
       </c>
       <c r="H88" t="n">
-        <v>5.430133539798807</v>
+        <v>5.430133539798806</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7667,22 +7667,22 @@
         <v>13.59393596010319</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.007305955427735347</v>
+        <v>0.007305955427735412</v>
       </c>
       <c r="R88" t="n">
-        <v>0.05393288548574247</v>
+        <v>0.05393288548574281</v>
       </c>
       <c r="S88" t="n">
-        <v>0.0424701598678264</v>
+        <v>0.04247015986782689</v>
       </c>
       <c r="T88" t="n">
-        <v>0.07252688699409589</v>
+        <v>0.07252688699409665</v>
       </c>
       <c r="U88" t="n">
-        <v>0.09119511536192385</v>
+        <v>0.09119511536192372</v>
       </c>
       <c r="V88" t="n">
-        <v>0.04530578919031651</v>
+        <v>0.04530578919031692</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003708099999997216</v>
+        <v>0.001677700000000115</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>0.06502941233506913</v>
       </c>
       <c r="F89" t="n">
-        <v>9.680770673066382</v>
+        <v>9.680770673066391</v>
       </c>
       <c r="G89" t="n">
         <v>118.0763983130162</v>
       </c>
       <c r="H89" t="n">
-        <v>13.85303738210423</v>
+        <v>13.85303738210425</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7746,25 +7746,25 @@
         <v>92.74356963466856</v>
       </c>
       <c r="P89" t="n">
-        <v>15.86701680395575</v>
+        <v>15.86701680395577</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.007915110800938185</v>
+        <v>0.007915110800942621</v>
       </c>
       <c r="R89" t="n">
-        <v>0.1663817604066453</v>
+        <v>0.1663817604068485</v>
       </c>
       <c r="S89" t="n">
-        <v>0.2718650947812357</v>
+        <v>0.2718650947815651</v>
       </c>
       <c r="T89" t="n">
-        <v>0.1541678480445016</v>
+        <v>0.1541678480446899</v>
       </c>
       <c r="U89" t="n">
         <v>0.09036075308749597</v>
       </c>
       <c r="V89" t="n">
-        <v>0.1749125986877769</v>
+        <v>0.1749125986877725</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.005626700000007645</v>
+        <v>0.003960499999999811</v>
       </c>
       <c r="Y89" t="n">
         <v>23</v>
@@ -7831,19 +7831,19 @@
         <v>11.42156782778743</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.008208544810556977</v>
+        <v>0.008208544810555952</v>
       </c>
       <c r="R90" t="n">
-        <v>0.1166203193992729</v>
+        <v>0.1166203193992405</v>
       </c>
       <c r="S90" t="n">
-        <v>0.1447610212472047</v>
+        <v>0.1447610212471657</v>
       </c>
       <c r="T90" t="n">
-        <v>0.07082468744659016</v>
+        <v>0.07082468744657046</v>
       </c>
       <c r="U90" t="n">
-        <v>0.08966330175362443</v>
+        <v>0.08966330175362455</v>
       </c>
       <c r="V90" t="n">
         <v>0.08956768797009912</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.006511000000003264</v>
+        <v>0.004270399999999341</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7886,7 +7886,7 @@
         <v>90.20775718171832</v>
       </c>
       <c r="H91" t="n">
-        <v>6.030024488858444</v>
+        <v>6.030024488858446</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7913,22 +7913,22 @@
         <v>11.18236336089194</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.00742666050042393</v>
+        <v>0.00742666050042414</v>
       </c>
       <c r="R91" t="n">
-        <v>0.06071372769510552</v>
+        <v>0.06071372769510504</v>
       </c>
       <c r="S91" t="n">
-        <v>0.0707704089746463</v>
+        <v>0.07077040897464676</v>
       </c>
       <c r="T91" t="n">
-        <v>0.02385654553664993</v>
+        <v>0.02385654553665065</v>
       </c>
       <c r="U91" t="n">
-        <v>0.0935635412419982</v>
+        <v>0.09356354124199828</v>
       </c>
       <c r="V91" t="n">
-        <v>0.03424983193095046</v>
+        <v>0.03424983193094974</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.003064199999997186</v>
+        <v>0.002279699999998996</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -7995,22 +7995,22 @@
         <v>13.17104955862592</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.006949773929639401</v>
+        <v>0.006949773929639439</v>
       </c>
       <c r="R92" t="n">
-        <v>0.05521876633630318</v>
+        <v>0.05521876633630286</v>
       </c>
       <c r="S92" t="n">
-        <v>0.0342290707578694</v>
+        <v>0.03422907075786952</v>
       </c>
       <c r="T92" t="n">
-        <v>0.08312541234742257</v>
+        <v>0.08312541234742316</v>
       </c>
       <c r="U92" t="n">
-        <v>0.09642325159981735</v>
+        <v>0.0964232515998171</v>
       </c>
       <c r="V92" t="n">
-        <v>0.05273338742549749</v>
+        <v>0.05273338742549727</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002203500000007352</v>
+        <v>0.001581100000001001</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8044,13 +8044,13 @@
         <v>359.9533128897002</v>
       </c>
       <c r="F93" t="n">
-        <v>9.950186261865003</v>
+        <v>9.950186261865007</v>
       </c>
       <c r="G93" t="n">
-        <v>36.13691373720326</v>
+        <v>36.13691373720327</v>
       </c>
       <c r="H93" t="n">
-        <v>6.929535670163916</v>
+        <v>6.929535670163919</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8071,28 +8071,28 @@
         <v>15.37253312835461</v>
       </c>
       <c r="O93" t="n">
-        <v>23.35313111871402</v>
+        <v>23.35313111871404</v>
       </c>
       <c r="P93" t="n">
-        <v>15.30309840215155</v>
+        <v>15.30309840215156</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.007600040977520898</v>
+        <v>0.007600040977520942</v>
       </c>
       <c r="R93" t="n">
-        <v>0.05857359248629625</v>
+        <v>0.05857359248629732</v>
       </c>
       <c r="S93" t="n">
-        <v>0.05097925566033165</v>
+        <v>0.05097925566033346</v>
       </c>
       <c r="T93" t="n">
-        <v>0.0769905364540735</v>
+        <v>0.07699053645407443</v>
       </c>
       <c r="U93" t="n">
-        <v>0.08465984093466275</v>
+        <v>0.08465984093466287</v>
       </c>
       <c r="V93" t="n">
-        <v>0.01640589151825527</v>
+        <v>0.01640589151825994</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002190200000001141</v>
+        <v>0.001808399999999821</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8159,22 +8159,22 @@
         <v>9.263195768367291</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.003770091968218682</v>
+        <v>0.00377009196821867</v>
       </c>
       <c r="R94" t="n">
-        <v>0.05335601302180771</v>
+        <v>0.05335601302180273</v>
       </c>
       <c r="S94" t="n">
-        <v>0.03643111639748124</v>
+        <v>0.03643111639747781</v>
       </c>
       <c r="T94" t="n">
-        <v>0.07605251428079476</v>
+        <v>0.07605251428078763</v>
       </c>
       <c r="U94" t="n">
-        <v>0.0803299551787011</v>
+        <v>0.08032995517870097</v>
       </c>
       <c r="V94" t="n">
-        <v>0.02788985061303136</v>
+        <v>0.027889850613031</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.007397499999996171</v>
+        <v>0.004109399999999042</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8235,28 +8235,28 @@
         <v>13.86645042167153</v>
       </c>
       <c r="O95" t="n">
-        <v>77.10002743957423</v>
+        <v>77.10002743957425</v>
       </c>
       <c r="P95" t="n">
         <v>13.87309351096039</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.008424996409969477</v>
+        <v>0.008424996409970046</v>
       </c>
       <c r="R95" t="n">
-        <v>0.1295547916244768</v>
+        <v>0.1295547916245046</v>
       </c>
       <c r="S95" t="n">
-        <v>0.1875834121297534</v>
+        <v>0.1875834121297915</v>
       </c>
       <c r="T95" t="n">
-        <v>0.07314168045455008</v>
+        <v>0.07314168045456605</v>
       </c>
       <c r="U95" t="n">
-        <v>0.08116017925863472</v>
+        <v>0.08116017925863468</v>
       </c>
       <c r="V95" t="n">
-        <v>0.005915029315116493</v>
+        <v>0.005915029315124628</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.00629360000000645</v>
+        <v>0.005881300000000422</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8323,19 +8323,19 @@
         <v>10.69082302823771</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.00811203207805636</v>
+        <v>0.008112032078057987</v>
       </c>
       <c r="R96" t="n">
-        <v>0.1534745343994647</v>
+        <v>0.1534745343995173</v>
       </c>
       <c r="S96" t="n">
-        <v>0.1776939262916293</v>
+        <v>0.1776939262916896</v>
       </c>
       <c r="T96" t="n">
-        <v>0.1375478247439631</v>
+        <v>0.1375478247440104</v>
       </c>
       <c r="U96" t="n">
-        <v>0.08977358511228771</v>
+        <v>0.08977358511228775</v>
       </c>
       <c r="V96" t="n">
         <v>0.01870122049259725</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.005563600000002111</v>
+        <v>0.004004699999999417</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8405,19 +8405,19 @@
         <v>13.31073183526781</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.007318351166687722</v>
+        <v>0.007318351166687746</v>
       </c>
       <c r="R97" t="n">
-        <v>0.05267851641989015</v>
+        <v>0.05267851641988976</v>
       </c>
       <c r="S97" t="n">
-        <v>0.0441755745584206</v>
+        <v>0.04417557455842025</v>
       </c>
       <c r="T97" t="n">
-        <v>0.06683268135241083</v>
+        <v>0.06683268135241113</v>
       </c>
       <c r="U97" t="n">
-        <v>0.08495771787778987</v>
+        <v>0.08495771787778983</v>
       </c>
       <c r="V97" t="n">
         <v>0.01694688012694064</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.0037726000000049</v>
+        <v>0.001596799999999732</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8457,10 +8457,10 @@
         <v>10.00196069544657</v>
       </c>
       <c r="G98" t="n">
-        <v>38.7059488200242</v>
+        <v>38.70594882002419</v>
       </c>
       <c r="H98" t="n">
-        <v>13.75322890004036</v>
+        <v>13.75322890004037</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8487,22 +8487,22 @@
         <v>23.30235907274373</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.008827101947675128</v>
+        <v>0.008827101947674757</v>
       </c>
       <c r="R98" t="n">
-        <v>0.08572282292538065</v>
+        <v>0.0857228229253785</v>
       </c>
       <c r="S98" t="n">
-        <v>0.1093308003330043</v>
+        <v>0.1093308003329968</v>
       </c>
       <c r="T98" t="n">
-        <v>0.1138087875239459</v>
+        <v>0.1138087875239369</v>
       </c>
       <c r="U98" t="n">
-        <v>0.08708299517094058</v>
+        <v>0.08708299517094056</v>
       </c>
       <c r="V98" t="n">
-        <v>0.04480016981213353</v>
+        <v>0.04480016981213258</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002575299999989511</v>
+        <v>0.001934900000000184</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8569,19 +8569,19 @@
         <v>12.74035829891565</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.004390507113874073</v>
+        <v>0.004390507113874162</v>
       </c>
       <c r="R99" t="n">
-        <v>0.06716465604525959</v>
+        <v>0.06716465604528281</v>
       </c>
       <c r="S99" t="n">
-        <v>0.06667544068664484</v>
+        <v>0.06667544068666742</v>
       </c>
       <c r="T99" t="n">
-        <v>0.1033177149069058</v>
+        <v>0.1033177149069416</v>
       </c>
       <c r="U99" t="n">
-        <v>0.08811322484537319</v>
+        <v>0.08811322484537322</v>
       </c>
       <c r="V99" t="n">
         <v>0.0664643243469101</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.007576099999994312</v>
+        <v>0.004433399999999921</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8615,16 +8615,16 @@
         <v>9.806268185410616</v>
       </c>
       <c r="E100" t="n">
-        <v>0.06593225644834461</v>
+        <v>0.06593225644835733</v>
       </c>
       <c r="F100" t="n">
-        <v>9.862314441150998</v>
+        <v>9.862314441150987</v>
       </c>
       <c r="G100" t="n">
         <v>131.9255633090651</v>
       </c>
       <c r="H100" t="n">
-        <v>9.601530776212657</v>
+        <v>9.601530776212643</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8648,25 +8648,25 @@
         <v>92.65628287462647</v>
       </c>
       <c r="P100" t="n">
-        <v>9.764697302082011</v>
+        <v>9.764697302081997</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.007856598028180747</v>
+        <v>0.007856598028178433</v>
       </c>
       <c r="R100" t="n">
-        <v>0.1462716335665976</v>
+        <v>0.1462716335665173</v>
       </c>
       <c r="S100" t="n">
-        <v>0.1599825734719705</v>
+        <v>0.1599825734718841</v>
       </c>
       <c r="T100" t="n">
-        <v>0.1310750225487039</v>
+        <v>0.131075022548632</v>
       </c>
       <c r="U100" t="n">
-        <v>0.0985861980485349</v>
+        <v>0.09858619804853502</v>
       </c>
       <c r="V100" t="n">
-        <v>0.08685871588988364</v>
+        <v>0.08685871588988965</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.006272100000003888</v>
+        <v>0.006515200000000831</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8727,28 +8727,28 @@
         <v>10.4553174329922</v>
       </c>
       <c r="O101" t="n">
-        <v>79.49154456721362</v>
+        <v>79.49154456721361</v>
       </c>
       <c r="P101" t="n">
         <v>10.52008406071603</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.00812641392452417</v>
+        <v>0.008126413924524067</v>
       </c>
       <c r="R101" t="n">
-        <v>0.1163701655260777</v>
+        <v>0.1163701655260727</v>
       </c>
       <c r="S101" t="n">
-        <v>0.1375547262997992</v>
+        <v>0.1375547262997939</v>
       </c>
       <c r="T101" t="n">
-        <v>0.07721812476341655</v>
+        <v>0.07721812476341308</v>
       </c>
       <c r="U101" t="n">
-        <v>0.08756471436654711</v>
+        <v>0.08756471436654696</v>
       </c>
       <c r="V101" t="n">
-        <v>0.03085431837774304</v>
+        <v>0.03085431837773593</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.005879899999996496</v>
+        <v>0.003936900000001131</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>
